--- a/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -718,7 +718,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>199900</v>
+        <v>753900</v>
       </c>
       <c r="E8" s="3">
         <v>567200</v>
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>132800</v>
+        <v>466400</v>
       </c>
       <c r="E9" s="3">
         <v>339800</v>
@@ -776,7 +776,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>67100</v>
+        <v>287500</v>
       </c>
       <c r="E10" s="3">
         <v>227400</v>
@@ -905,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>26200</v>
+        <v>79800</v>
       </c>
       <c r="E15" s="3">
         <v>54100</v>
@@ -944,7 +944,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>345400</v>
+        <v>908100</v>
       </c>
       <c r="E17" s="3">
         <v>567600</v>
@@ -973,7 +973,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-145500</v>
+        <v>-154200</v>
       </c>
       <c r="E18" s="3">
         <v>-400</v>
@@ -1015,7 +1015,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-14900</v>
+        <v>12500</v>
       </c>
       <c r="E20" s="3">
         <v>25400</v>
@@ -1044,7 +1044,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-134200</v>
+        <v>-61300</v>
       </c>
       <c r="E21" s="3">
         <v>79000</v>
@@ -1073,7 +1073,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>1900</v>
       </c>
       <c r="E22" s="3">
         <v>1200</v>
@@ -1102,7 +1102,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-161000</v>
+        <v>-143500</v>
       </c>
       <c r="E23" s="3">
         <v>23700</v>
@@ -1131,7 +1131,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-10100</v>
+        <v>-8700</v>
       </c>
       <c r="E24" s="3">
         <v>1400</v>
@@ -1189,7 +1189,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-150800</v>
+        <v>-134800</v>
       </c>
       <c r="E26" s="3">
         <v>22300</v>
@@ -1218,7 +1218,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-128600</v>
+        <v>-109400</v>
       </c>
       <c r="E27" s="3">
         <v>23800</v>
@@ -1363,7 +1363,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>14900</v>
+        <v>-12500</v>
       </c>
       <c r="E32" s="3">
         <v>-25400</v>
@@ -1392,7 +1392,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-128600</v>
+        <v>-109400</v>
       </c>
       <c r="E33" s="3">
         <v>23800</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-128600</v>
+        <v>-109400</v>
       </c>
       <c r="E35" s="3">
         <v>23800</v>
@@ -2598,7 +2598,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-128600</v>
+        <v>-109400</v>
       </c>
       <c r="E81" s="3">
         <v>23800</v>
@@ -2640,7 +2640,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26200</v>
+        <v>80300</v>
       </c>
       <c r="E83" s="3">
         <v>54100</v>
@@ -2814,7 +2814,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>41400</v>
+        <v>137000</v>
       </c>
       <c r="E89" s="3">
         <v>95600</v>
@@ -2856,7 +2856,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-118500</v>
+        <v>-326600</v>
       </c>
       <c r="E91" s="3">
         <v>-208100</v>
@@ -2943,7 +2943,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-348300</v>
+        <v>-478000</v>
       </c>
       <c r="E94" s="3">
         <v>-129700</v>
@@ -3101,7 +3101,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>311000</v>
+        <v>266900</v>
       </c>
       <c r="E100" s="3">
         <v>-44100</v>
@@ -3130,7 +3130,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2200</v>
+        <v>3900</v>
       </c>
       <c r="E101" s="3">
         <v>1700</v>
@@ -3159,7 +3159,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6300</v>
+        <v>-70200</v>
       </c>
       <c r="E102" s="3">
         <v>-76500</v>

--- a/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>MSGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,168 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>753900</v>
+        <v>14400</v>
       </c>
       <c r="E8" s="3">
+        <v>762900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>199900</v>
+      </c>
+      <c r="G8" s="3">
         <v>567200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>216500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>250000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>582400</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>466400</v>
+        <v>27800</v>
       </c>
       <c r="E9" s="3">
+        <v>508100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>132800</v>
+      </c>
+      <c r="G9" s="3">
         <v>339800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>163400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>158700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>348500</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>287500</v>
+        <v>-13400</v>
       </c>
       <c r="E10" s="3">
+        <v>254800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>67100</v>
+      </c>
+      <c r="G10" s="3">
         <v>227400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>53100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>91300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>233900</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,26 +904,32 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>105800</v>
+      </c>
+      <c r="F14" s="3">
         <v>102200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>4000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -899,37 +939,49 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>79800</v>
+        <v>26600</v>
       </c>
       <c r="E15" s="3">
+        <v>104900</v>
+      </c>
+      <c r="F15" s="3">
+        <v>26200</v>
+      </c>
+      <c r="G15" s="3">
         <v>54100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>27700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>26800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>54800</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>908100</v>
+        <v>141000</v>
       </c>
       <c r="E17" s="3">
+        <v>822700</v>
+      </c>
+      <c r="F17" s="3">
+        <v>345400</v>
+      </c>
+      <c r="G17" s="3">
         <v>567600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>278600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>268600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>551300</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-154200</v>
+        <v>-126600</v>
       </c>
       <c r="E18" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-145500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-62100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-18600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>31100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,153 +1075,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>12500</v>
+        <v>32800</v>
       </c>
       <c r="E20" s="3">
+        <v>52500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="G20" s="3">
         <v>25400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>9700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>25300</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-61300</v>
+        <v>-67200</v>
       </c>
       <c r="E21" s="3">
+        <v>97600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-134200</v>
+      </c>
+      <c r="G21" s="3">
         <v>79000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-34200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>17900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>111300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1900</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>600</v>
+      </c>
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>5200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>3200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>6800</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-143500</v>
+        <v>-94200</v>
       </c>
       <c r="E23" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="G23" s="3">
         <v>23700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-67100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-12100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>49600</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-8700</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-134800</v>
+        <v>-94400</v>
       </c>
       <c r="E26" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-150800</v>
+      </c>
+      <c r="G26" s="3">
         <v>22300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-66300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-12600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>48800</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-109400</v>
+        <v>-89800</v>
       </c>
       <c r="E27" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-128600</v>
+      </c>
+      <c r="G27" s="3">
         <v>23800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-60900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-11900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>54900</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12500</v>
+        <v>-32800</v>
       </c>
       <c r="E32" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>14900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-25400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-9700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-25300</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-109400</v>
+        <v>-89800</v>
       </c>
       <c r="E33" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-128600</v>
+      </c>
+      <c r="G33" s="3">
         <v>23800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-60900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-11900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>54900</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-109400</v>
+        <v>-89800</v>
       </c>
       <c r="E35" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-128600</v>
+      </c>
+      <c r="G35" s="3">
         <v>23800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-60900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-11900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>54900</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,23 +1705,25 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>925800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>906600</v>
+      </c>
+      <c r="F41" s="3">
         <v>1003900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>997700</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1562,23 +1736,29 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>337200</v>
+      </c>
+      <c r="F42" s="3">
         <v>331000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>113000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,23 +1771,29 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>111400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>84100</v>
+      </c>
+      <c r="F43" s="3">
         <v>115700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>103300</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1620,8 +1806,14 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,23 +1841,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>98700</v>
+      </c>
+      <c r="F45" s="3">
         <v>198800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>84200</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1678,23 +1876,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1179100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1426500</v>
+      </c>
+      <c r="F46" s="3">
         <v>1649400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1298200</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1707,23 +1911,29 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>255900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>245700</v>
+      </c>
+      <c r="F47" s="3">
         <v>274800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>257500</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1736,23 +1946,29 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1948500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1866400</v>
+      </c>
+      <c r="F48" s="3">
         <v>1775500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1775900</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1765,23 +1981,29 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>285700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>288500</v>
+      </c>
+      <c r="F49" s="3">
         <v>302800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>393500</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1794,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +2086,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,23 +2156,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3586200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3719200</v>
+      </c>
+      <c r="F54" s="3">
         <v>3827200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3580000</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1939,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,23 +2225,25 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F57" s="3">
         <v>18800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>40700</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1994,23 +2256,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F58" s="3">
         <v>4800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>4800</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2023,23 +2291,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>437900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>487300</v>
+      </c>
+      <c r="F59" s="3">
         <v>602100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>496300</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,23 +2326,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>451000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>510000</v>
+      </c>
+      <c r="F60" s="3">
         <v>625700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>541800</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,23 +2361,29 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>28100</v>
+      </c>
+      <c r="F61" s="3">
         <v>30000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>31200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2110,23 +2396,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>307400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>306700</v>
+      </c>
+      <c r="F62" s="3">
         <v>332600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>318100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2139,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,23 +2536,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>814300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>877600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1028300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>974100</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2255,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>52100</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>141900</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,23 +2866,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2771900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2841600</v>
+      </c>
+      <c r="F76" s="3">
         <v>2798900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2605900</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-109400</v>
+        <v>-89800</v>
       </c>
       <c r="E81" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-128600</v>
+      </c>
+      <c r="G81" s="3">
         <v>23800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-60900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-11900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>54900</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>80300</v>
+        <v>26600</v>
       </c>
       <c r="E83" s="3">
+        <v>104900</v>
+      </c>
+      <c r="F83" s="3">
+        <v>26200</v>
+      </c>
+      <c r="G83" s="3">
         <v>54100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>27700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>26800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>54800</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>137000</v>
+        <v>-163800</v>
       </c>
       <c r="E89" s="3">
+        <v>96000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>41400</v>
+      </c>
+      <c r="G89" s="3">
         <v>95600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>46800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>20300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>24700</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-326600</v>
+        <v>-112100</v>
       </c>
       <c r="E91" s="3">
+        <v>-452400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-118500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-208100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-69700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-35400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-78900</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-478000</v>
+        <v>194300</v>
       </c>
       <c r="E94" s="3">
+        <v>-389700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-348300</v>
+      </c>
+      <c r="G94" s="3">
         <v>-129700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-71200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-143100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-13700</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3581,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>266900</v>
+        <v>-7000</v>
       </c>
       <c r="E100" s="3">
+        <v>122900</v>
+      </c>
+      <c r="F100" s="3">
+        <v>311000</v>
+      </c>
+      <c r="G100" s="3">
         <v>-44100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-41200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>42200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-9600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3900</v>
+        <v>5800</v>
       </c>
       <c r="E101" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G101" s="3">
         <v>1700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-70200</v>
+        <v>29300</v>
       </c>
       <c r="E102" s="3">
+        <v>-167800</v>
+      </c>
+      <c r="F102" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G102" s="3">
         <v>-76500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-67400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-74600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1700</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,179 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
-        <v>43555</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E8" s="3">
         <v>14400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>762900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>199900</v>
       </c>
-      <c r="G8" s="3">
-        <v>567200</v>
-      </c>
       <c r="H8" s="3">
+        <v>394100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>178000</v>
+      </c>
+      <c r="J8" s="3">
         <v>216500</v>
       </c>
-      <c r="I8" s="3">
-        <v>250000</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>582400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>27800</v>
+        <v>28600</v>
       </c>
       <c r="E9" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F9" s="3">
         <v>508100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>132800</v>
       </c>
-      <c r="G9" s="3">
-        <v>339800</v>
-      </c>
       <c r="H9" s="3">
+        <v>405400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>123300</v>
+      </c>
+      <c r="J9" s="3">
         <v>163400</v>
       </c>
-      <c r="I9" s="3">
-        <v>158700</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>348500</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-13400</v>
+        <v>-5500</v>
       </c>
       <c r="E10" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F10" s="3">
         <v>254800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>67100</v>
       </c>
-      <c r="G10" s="3">
-        <v>227400</v>
-      </c>
       <c r="H10" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>54700</v>
+      </c>
+      <c r="J10" s="3">
         <v>53100</v>
       </c>
-      <c r="I10" s="3">
-        <v>91300</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>233900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +851,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,32 +925,35 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="3">
         <v>19900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>105800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>102200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>4000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -945,43 +963,49 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E15" s="3">
         <v>26600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>104900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>26200</v>
       </c>
-      <c r="G15" s="3">
-        <v>54100</v>
-      </c>
       <c r="H15" s="3">
-        <v>27700</v>
+        <v>27400</v>
       </c>
       <c r="I15" s="3">
         <v>26800</v>
       </c>
       <c r="J15" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K15" s="3">
         <v>54800</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1016,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>135700</v>
+      </c>
+      <c r="E17" s="3">
         <v>141000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>822700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>345400</v>
       </c>
-      <c r="G17" s="3">
-        <v>567600</v>
-      </c>
       <c r="H17" s="3">
+        <v>324500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>246100</v>
+      </c>
+      <c r="J17" s="3">
         <v>278600</v>
       </c>
-      <c r="I17" s="3">
-        <v>268600</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>551300</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-112600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-126600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-59800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-145500</v>
       </c>
-      <c r="G18" s="3">
-        <v>-400</v>
-      </c>
       <c r="H18" s="3">
+        <v>69600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-68100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-62100</v>
       </c>
-      <c r="I18" s="3">
-        <v>-18600</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>31100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,183 +1108,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E20" s="3">
         <v>32800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>52500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-14900</v>
       </c>
-      <c r="G20" s="3">
-        <v>25400</v>
-      </c>
       <c r="H20" s="3">
+        <v>14400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>9700</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>25300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-97200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-67200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>97600</v>
       </c>
-      <c r="F21" s="3">
-        <v>-134200</v>
-      </c>
       <c r="G21" s="3">
-        <v>79000</v>
+        <v>-134300</v>
       </c>
       <c r="H21" s="3">
+        <v>111500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="J21" s="3">
         <v>-34200</v>
       </c>
-      <c r="I21" s="3">
-        <v>17900</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>111300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
-        <v>1200</v>
-      </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J22" s="3">
         <v>5200</v>
       </c>
-      <c r="I22" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6800</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-128800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-94200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-161000</v>
       </c>
-      <c r="G23" s="3">
-        <v>23700</v>
-      </c>
       <c r="H23" s="3">
+        <v>83900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-67100</v>
       </c>
-      <c r="I23" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>49600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-10100</v>
       </c>
-      <c r="G24" s="3">
-        <v>1400</v>
-      </c>
       <c r="H24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
         <v>-800</v>
       </c>
-      <c r="I24" s="3">
-        <v>500</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1334,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-129100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-94400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-150800</v>
       </c>
-      <c r="G26" s="3">
-        <v>22300</v>
-      </c>
       <c r="H26" s="3">
+        <v>82600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-66300</v>
       </c>
-      <c r="I26" s="3">
-        <v>-12600</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>48800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-124900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-89800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>17200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-128600</v>
       </c>
-      <c r="G27" s="3">
-        <v>23800</v>
-      </c>
       <c r="H27" s="3">
+        <v>81300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-60900</v>
       </c>
-      <c r="I27" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>54900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1562,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-32800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-52500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>14900</v>
       </c>
-      <c r="G32" s="3">
-        <v>-25400</v>
-      </c>
       <c r="H32" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-25300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-124900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-89800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>17200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-128600</v>
       </c>
-      <c r="G33" s="3">
-        <v>23800</v>
-      </c>
       <c r="H33" s="3">
+        <v>81300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-60900</v>
       </c>
-      <c r="I33" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>54900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1676,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-124900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-89800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>17200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-128600</v>
       </c>
-      <c r="G35" s="3">
-        <v>23800</v>
-      </c>
       <c r="H35" s="3">
+        <v>81300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-60900</v>
       </c>
-      <c r="I35" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>54900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
-        <v>43555</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,26 +1791,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1451400</v>
+      </c>
+      <c r="E41" s="3">
         <v>925800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>906600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1003900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>997700</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,26 +1827,29 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>38900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>337200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>331000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>113000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1777,26 +1865,29 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>113600</v>
+      </c>
+      <c r="E43" s="3">
         <v>111400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>84100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>115700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>103300</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,8 +1903,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,26 +1941,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>97300</v>
+      </c>
+      <c r="E45" s="3">
         <v>103000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>98700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>198800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>84200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,26 +1979,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1662300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1179100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1426500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1649400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1298200</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,26 +2017,29 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>257400</v>
+      </c>
+      <c r="E47" s="3">
         <v>255900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>245700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>274800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>257500</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1952,26 +2055,29 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2035500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1948500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1866400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1775500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1775900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1987,26 +2093,29 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>282800</v>
+      </c>
+      <c r="E49" s="3">
         <v>285700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>288500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>302800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>393500</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2131,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2207,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,26 +2283,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4121800</v>
+      </c>
+      <c r="E54" s="3">
         <v>3586200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3719200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3827200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3580000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,26 +2355,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>40700</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2262,25 +2391,28 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="E58" s="3">
         <v>5400</v>
       </c>
       <c r="F58" s="3">
-        <v>4800</v>
+        <v>5400</v>
       </c>
       <c r="G58" s="3">
         <v>4800</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>4800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2297,26 +2429,29 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>462200</v>
+      </c>
+      <c r="E59" s="3">
         <v>437900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>487300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>602100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>496300</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,26 +2467,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>472300</v>
+      </c>
+      <c r="E60" s="3">
         <v>451000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>510000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>625700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>541800</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,26 +2505,29 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>649400</v>
+      </c>
+      <c r="E61" s="3">
         <v>26800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>28100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>30000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>31200</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2402,26 +2543,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>290300</v>
+      </c>
+      <c r="E62" s="3">
         <v>307400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>306700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>332600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>318100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,26 +2695,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1437700</v>
+      </c>
+      <c r="E66" s="3">
         <v>814300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>877600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1028300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>974100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,20 +2901,23 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-72800</v>
+      </c>
+      <c r="E72" s="3">
         <v>52100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>141900</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2758,8 +2930,8 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
@@ -2767,8 +2939,11 @@
       <c r="M72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,26 +3053,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2684100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2771900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2841600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2798900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2605900</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3129,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
-        <v>43555</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-124900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-89800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>17200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-128600</v>
       </c>
-      <c r="G81" s="3">
-        <v>23800</v>
-      </c>
       <c r="H81" s="3">
+        <v>81300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-60900</v>
       </c>
-      <c r="I81" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>54900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3228,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E83" s="3">
         <v>26600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>104900</v>
       </c>
-      <c r="F83" s="3">
-        <v>26200</v>
-      </c>
       <c r="G83" s="3">
-        <v>54100</v>
+        <v>26000</v>
       </c>
       <c r="H83" s="3">
-        <v>27700</v>
+        <v>27400</v>
       </c>
       <c r="I83" s="3">
         <v>26800</v>
       </c>
       <c r="J83" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K83" s="3">
         <v>54800</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3454,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-163800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>96000</v>
       </c>
-      <c r="F89" s="3">
-        <v>41400</v>
-      </c>
       <c r="G89" s="3">
-        <v>95600</v>
+        <v>33200</v>
       </c>
       <c r="H89" s="3">
+        <v>122900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="J89" s="3">
         <v>46800</v>
       </c>
-      <c r="I89" s="3">
-        <v>20300</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>24700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3510,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-107200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-112100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-452400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-118500</v>
-      </c>
       <c r="G91" s="3">
-        <v>-208100</v>
+        <v>-118600</v>
       </c>
       <c r="H91" s="3">
+        <v>-121700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="J91" s="3">
         <v>-69700</v>
       </c>
-      <c r="I91" s="3">
-        <v>-35400</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-78900</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3622,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="E94" s="3">
         <v>194300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-389700</v>
       </c>
-      <c r="F94" s="3">
-        <v>-348300</v>
-      </c>
       <c r="G94" s="3">
-        <v>-129700</v>
+        <v>-348400</v>
       </c>
       <c r="H94" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-66600</v>
+      </c>
+      <c r="J94" s="3">
         <v>-71200</v>
       </c>
-      <c r="I94" s="3">
-        <v>-143100</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13700</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3828,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>621400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>122900</v>
       </c>
-      <c r="F100" s="3">
-        <v>311000</v>
-      </c>
       <c r="G100" s="3">
-        <v>-44100</v>
+        <v>307800</v>
       </c>
       <c r="H100" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="J100" s="3">
         <v>-41200</v>
       </c>
-      <c r="I100" s="3">
-        <v>42200</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>5800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2200</v>
       </c>
-      <c r="G101" s="3">
-        <v>1700</v>
-      </c>
       <c r="H101" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1800</v>
       </c>
-      <c r="I101" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>524000</v>
+      </c>
+      <c r="E102" s="3">
         <v>29300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-167800</v>
       </c>
-      <c r="F102" s="3">
-        <v>6300</v>
-      </c>
       <c r="G102" s="3">
-        <v>-76500</v>
+        <v>-5200</v>
       </c>
       <c r="H102" s="3">
+        <v>58000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-123000</v>
+      </c>
+      <c r="J102" s="3">
         <v>-67400</v>
       </c>
-      <c r="I102" s="3">
-        <v>-74600</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>MSGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,192 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E8" s="3">
         <v>23100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>762900</v>
       </c>
-      <c r="G8" s="3">
-        <v>199900</v>
-      </c>
       <c r="H8" s="3">
+        <v>181900</v>
+      </c>
+      <c r="I8" s="3">
         <v>394100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>178000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>216500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>582400</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E9" s="3">
         <v>28600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>27500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>508100</v>
       </c>
-      <c r="G9" s="3">
-        <v>132800</v>
-      </c>
       <c r="H9" s="3">
+        <v>249400</v>
+      </c>
+      <c r="I9" s="3">
         <v>405400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>123300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>163400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>348500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E10" s="3">
         <v>-5500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-13100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>254800</v>
       </c>
-      <c r="G10" s="3">
-        <v>67100</v>
-      </c>
       <c r="H10" s="3">
+        <v>-67500</v>
+      </c>
+      <c r="I10" s="3">
         <v>-11300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>54700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>53100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>233900</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +865,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,35 +945,38 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>19900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>105800</v>
       </c>
-      <c r="G14" s="3">
-        <v>102200</v>
-      </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>204400</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>4000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -966,46 +986,52 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E15" s="3">
         <v>23900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>26600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>104900</v>
       </c>
-      <c r="G15" s="3">
-        <v>26200</v>
-      </c>
       <c r="H15" s="3">
+        <v>25500</v>
+      </c>
+      <c r="I15" s="3">
         <v>27400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>26800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>27700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>54800</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,84 +1043,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>151700</v>
+      </c>
+      <c r="E17" s="3">
         <v>135700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>141000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>822700</v>
       </c>
-      <c r="G17" s="3">
-        <v>345400</v>
-      </c>
       <c r="H17" s="3">
+        <v>337500</v>
+      </c>
+      <c r="I17" s="3">
         <v>324500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>246100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>278600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>551300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-108600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-112600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-126600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-59800</v>
       </c>
-      <c r="G18" s="3">
-        <v>-145500</v>
-      </c>
       <c r="H18" s="3">
+        <v>-155600</v>
+      </c>
+      <c r="I18" s="3">
         <v>69600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-68100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-62100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>31100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,198 +1142,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>32800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>52500</v>
       </c>
-      <c r="G20" s="3">
-        <v>-14900</v>
-      </c>
       <c r="H20" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="I20" s="3">
         <v>14400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>12800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>25300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-97200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-67200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>97600</v>
       </c>
-      <c r="G21" s="3">
-        <v>-134300</v>
-      </c>
       <c r="H21" s="3">
+        <v>-144800</v>
+      </c>
+      <c r="I21" s="3">
         <v>111500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-28500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-34200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>111300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E22" s="3">
         <v>7700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6800</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-128800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-94200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9600</v>
       </c>
-      <c r="G23" s="3">
-        <v>-161000</v>
-      </c>
       <c r="H23" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="I23" s="3">
         <v>83900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-56400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-67100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>49600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-10100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1386,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-129100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-94400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-150800</v>
-      </c>
       <c r="H26" s="3">
+        <v>-160900</v>
+      </c>
+      <c r="I26" s="3">
         <v>82600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-56600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-66300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>48800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-124900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-89800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>17200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-128600</v>
-      </c>
       <c r="H27" s="3">
+        <v>-134700</v>
+      </c>
+      <c r="I27" s="3">
         <v>81300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-56000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-60900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>54900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,84 +1632,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E32" s="3">
         <v>8500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-32800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-52500</v>
       </c>
-      <c r="G32" s="3">
-        <v>14900</v>
-      </c>
       <c r="H32" s="3">
+        <v>14800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-14400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-12800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-25300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-124900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-89800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-128600</v>
-      </c>
       <c r="H33" s="3">
+        <v>-134700</v>
+      </c>
+      <c r="I33" s="3">
         <v>81300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-56000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-60900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>54900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-124900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-89800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-128600</v>
-      </c>
       <c r="H35" s="3">
+        <v>-134700</v>
+      </c>
+      <c r="I35" s="3">
         <v>81300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-56000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-60900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>54900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,29 +1878,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1277700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1451400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>925800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>906600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1003900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>997700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1839,20 +1929,20 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>38900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>337200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>331000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>113000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,29 +1958,32 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>153800</v>
+      </c>
+      <c r="E43" s="3">
         <v>113600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>111400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>84100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>115700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>103300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,8 +1999,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,29 +2040,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E45" s="3">
         <v>97300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>103000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>98700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>198800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>84200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,29 +2081,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1540800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1662300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1179100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1426500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1649400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1298200</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,29 +2122,32 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>273600</v>
+      </c>
+      <c r="E47" s="3">
         <v>257400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>255900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>245700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>274800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>257500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2058,29 +2163,32 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2127100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2035500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1948500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1866400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1775500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1775900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,29 +2204,32 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>265700</v>
+      </c>
+      <c r="E49" s="3">
         <v>282800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>285700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>288500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>302800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>393500</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,8 +2327,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,29 +2409,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4104200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4121800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3586200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3719200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3827200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3580000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,29 +2486,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E57" s="3">
         <v>5000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>40700</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,28 +2525,31 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E58" s="3">
         <v>5100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>5400</v>
       </c>
       <c r="F58" s="3">
         <v>5400</v>
       </c>
       <c r="G58" s="3">
-        <v>4800</v>
+        <v>5400</v>
       </c>
       <c r="H58" s="3">
         <v>4800</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>4800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2432,29 +2566,32 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>498500</v>
+      </c>
+      <c r="E59" s="3">
         <v>462200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>437900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>487300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>602100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>496300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,29 +2607,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>513300</v>
+      </c>
+      <c r="E60" s="3">
         <v>472300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>451000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>510000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>625700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>541800</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,29 +2648,32 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>657000</v>
+      </c>
+      <c r="E61" s="3">
         <v>649400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>26800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>28100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>30000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>31200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2546,29 +2689,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>301200</v>
+      </c>
+      <c r="E62" s="3">
         <v>290300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>307400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>306700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>332600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>318100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,29 +2853,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1498700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1437700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>814300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>877600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1028300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>974100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,23 +3075,26 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-152400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-72800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>52100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>141900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2933,8 +3107,8 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,29 +3239,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2605500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2684100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2771900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2841600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2798900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2605900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-124900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-89800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-128600</v>
-      </c>
       <c r="H81" s="3">
+        <v>-134700</v>
+      </c>
+      <c r="I81" s="3">
         <v>81300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-56000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-60900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>54900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,46 +3427,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E83" s="3">
         <v>23900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>26600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>104900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>26000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>26800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>27700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>54800</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,46 +3671,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-78200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-51800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-163800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>96000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>33200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>122900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-19200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>46800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,46 +3731,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-102300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-107200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-112100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-452400</v>
       </c>
-      <c r="G91" s="3">
-        <v>-118600</v>
-      </c>
       <c r="H91" s="3">
+        <v>-118500</v>
+      </c>
+      <c r="I91" s="3">
         <v>-121700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-86400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-69700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-78900</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,46 +3852,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-47600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>194300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-389700</v>
       </c>
-      <c r="G94" s="3">
-        <v>-348400</v>
-      </c>
       <c r="H94" s="3">
+        <v>-348300</v>
+      </c>
+      <c r="I94" s="3">
         <v>-63000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-66600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-71200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,118 +4074,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E100" s="3">
         <v>621400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>122900</v>
       </c>
-      <c r="G100" s="3">
-        <v>307800</v>
-      </c>
       <c r="H100" s="3">
+        <v>309400</v>
+      </c>
+      <c r="I100" s="3">
         <v>-5600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-35300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-41200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-175300</v>
+      </c>
+      <c r="E102" s="3">
         <v>524000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>29300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-167800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>58000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-123000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-67400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
@@ -1007,10 +1007,10 @@
         <v>104900</v>
       </c>
       <c r="H15" s="3">
-        <v>25500</v>
+        <v>51700</v>
       </c>
       <c r="I15" s="3">
-        <v>27400</v>
+        <v>54700</v>
       </c>
       <c r="J15" s="3">
         <v>26800</v>

--- a/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>MSGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,218 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>294500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>99800</v>
+      </c>
+      <c r="F8" s="3">
         <v>43100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>23100</v>
       </c>
-      <c r="F8" s="3">
-        <v>14400</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>170500</v>
+      </c>
+      <c r="I8" s="3">
         <v>762900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>181900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>394100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>178000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>216500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>582400</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>54600</v>
+      </c>
+      <c r="F9" s="3">
         <v>28300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>28600</v>
       </c>
-      <c r="F9" s="3">
-        <v>27500</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>92500</v>
+      </c>
+      <c r="I9" s="3">
         <v>508100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>249400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>405400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>123300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>163400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>348500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>141500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45200</v>
+      </c>
+      <c r="F10" s="3">
         <v>14800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-5500</v>
       </c>
-      <c r="F10" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>78000</v>
+      </c>
+      <c r="I10" s="3">
         <v>254800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-67500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-11300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>54700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>53100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>233900</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +892,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +935,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,90 +982,108 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>19900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>105800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>204400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>4000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F15" s="3">
         <v>37800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>23900</v>
       </c>
-      <c r="F15" s="3">
-        <v>26600</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
+        <v>28400</v>
+      </c>
+      <c r="I15" s="3">
         <v>104900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>51700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>54700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>26800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>27700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>54800</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1096,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>377800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>202200</v>
+      </c>
+      <c r="F17" s="3">
         <v>151700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>135700</v>
       </c>
-      <c r="F17" s="3">
-        <v>141000</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>229200</v>
+      </c>
+      <c r="I17" s="3">
         <v>822700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>337500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>324500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>246100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>278600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>551300</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-83300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-102400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-108600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-112600</v>
       </c>
-      <c r="F18" s="3">
-        <v>-126600</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-59800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-155600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>69600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-68100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-62100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>31100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,213 +1209,245 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F20" s="3">
         <v>24400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-8500</v>
       </c>
-      <c r="F20" s="3">
-        <v>32800</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>33100</v>
+      </c>
+      <c r="I20" s="3">
         <v>52500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-14800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>14400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>12800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>25300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-46400</v>
       </c>
-      <c r="E21" s="3">
-        <v>-97200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-67200</v>
-      </c>
       <c r="G21" s="3">
+        <v>-99100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I21" s="3">
         <v>97600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-144800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>111500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-28500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-34200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>111300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F22" s="3">
         <v>14900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>7700</v>
       </c>
-      <c r="F22" s="3">
-        <v>400</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I22" s="3">
         <v>2300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>5200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>6800</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-104900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-117800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-99000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-128800</v>
       </c>
-      <c r="F23" s="3">
-        <v>-94200</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-9600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-171000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>83900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-56400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-67100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>49600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-11900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>200</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-84300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-119800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-87200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-129100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-94400</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-14700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-160900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>82600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-56600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-66300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>48800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-79600</v>
+        <v>-86900</v>
       </c>
       <c r="E27" s="3">
+        <v>-117800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-124900</v>
       </c>
-      <c r="F27" s="3">
-        <v>-89800</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="I27" s="3">
         <v>17200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-134700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>81300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-56000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-60900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>54900</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,90 +1769,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-24400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>8500</v>
       </c>
-      <c r="F32" s="3">
-        <v>-32800</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-52500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>14800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-14400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-12800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-25300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-79600</v>
+        <v>-86900</v>
       </c>
       <c r="E33" s="3">
+        <v>-117800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-124900</v>
       </c>
-      <c r="F33" s="3">
-        <v>-89800</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="I33" s="3">
         <v>17200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-134700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>81300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-56000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-60900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>54900</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-79600</v>
+        <v>-86900</v>
       </c>
       <c r="E35" s="3">
+        <v>-117800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-124900</v>
       </c>
-      <c r="F35" s="3">
-        <v>-89800</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="I35" s="3">
         <v>17200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-134700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>81300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-56000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-60900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>54900</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,35 +2051,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1331500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1517000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1277700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1451400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>925800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>906600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1003900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>997700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,35 +2094,41 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>38900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>337200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>331000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>113000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,35 +2141,41 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>231400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>309500</v>
+      </c>
+      <c r="F43" s="3">
         <v>153800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>113600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>111400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>84100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>115700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>103300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2188,14 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,35 +2235,41 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>126300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>132300</v>
+      </c>
+      <c r="F45" s="3">
         <v>109300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>97300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>103000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>98700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>198800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>84200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,35 +2282,41 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1689100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1872700</v>
+      </c>
+      <c r="F46" s="3">
         <v>1540800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1662300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1179100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1426500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1649400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1298200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,35 +2329,41 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>49300</v>
+      </c>
+      <c r="F47" s="3">
         <v>273600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>257400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>255900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>245700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>274800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>257500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2166,35 +2376,41 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2639600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2387600</v>
+      </c>
+      <c r="F48" s="3">
         <v>2127100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2035500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1948500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1866400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1775500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1775900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,35 +2423,41 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>750200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>764300</v>
+      </c>
+      <c r="F49" s="3">
         <v>265700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>282800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>285700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>288500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>302800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>393500</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2470,14 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,16 +2564,22 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>152200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>173500</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -2371,8 +2611,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,35 +2658,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5279400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5240700</v>
+      </c>
+      <c r="F54" s="3">
         <v>4104200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4121800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3586200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3719200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3827200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3580000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2705,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,35 +2747,37 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>26600</v>
+      </c>
+      <c r="F57" s="3">
         <v>10400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>7700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>17300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>18800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>40700</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,35 +2790,41 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F58" s="3">
         <v>4500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>5400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2569,35 +2837,41 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>672200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>649300</v>
+      </c>
+      <c r="F59" s="3">
         <v>498500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>462200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>437900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>487300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>602100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>496300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,35 +2884,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>753800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>729900</v>
+      </c>
+      <c r="F60" s="3">
         <v>513300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>472300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>451000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>510000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>625700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>541800</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,35 +2931,41 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1621200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1650600</v>
+      </c>
+      <c r="F61" s="3">
         <v>657000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>649400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>26800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>28100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>30000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>31200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2692,35 +2978,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>715900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>656000</v>
+      </c>
+      <c r="F62" s="3">
         <v>301200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>290300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>307400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>306700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>332600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>318100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +3025,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,35 +3166,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3244500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3112500</v>
+      </c>
+      <c r="F66" s="3">
         <v>1498700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1437700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>814300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>877600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1028300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>974100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3213,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,29 +3420,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-209500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-122700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-152400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-72800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>52100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>141900</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3110,17 +3458,23 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,35 +3608,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2034900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2128200</v>
+      </c>
+      <c r="F76" s="3">
         <v>2605500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2684100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2771900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2841600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2798900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2605900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3655,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-79600</v>
+        <v>-86900</v>
       </c>
       <c r="E81" s="3">
+        <v>-117800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-124900</v>
       </c>
-      <c r="F81" s="3">
-        <v>-89800</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="I81" s="3">
         <v>17200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-134700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>81300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-56000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-60900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>54900</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,49 +3824,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F83" s="3">
         <v>37800</v>
       </c>
-      <c r="E83" s="3">
-        <v>23900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>26600</v>
-      </c>
       <c r="G83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>28400</v>
+      </c>
+      <c r="I83" s="3">
         <v>104900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>26000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>27400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>26800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>27700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>54800</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +4102,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-78200</v>
       </c>
-      <c r="E89" s="3">
-        <v>-51800</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-163800</v>
-      </c>
       <c r="G89" s="3">
+        <v>-120100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-95600</v>
+      </c>
+      <c r="I89" s="3">
         <v>96000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>33200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>122900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-19200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>46800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>24700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,49 +4172,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-137300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-130500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-102300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-107200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-112100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-452400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-118500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-121700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-86400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-69700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-78900</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,49 +4309,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-137000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-130500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-47600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>194300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-389700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-348300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-63000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-66600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-71200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-13700</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,127 +4563,151 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F100" s="3">
         <v>3500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>621400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-7000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>122900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>309400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-5600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-35300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-41200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-9600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>5800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>2900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>2200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>3600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-184500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-110600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-175300</v>
       </c>
-      <c r="E102" s="3">
-        <v>524000</v>
-      </c>
-      <c r="F102" s="3">
-        <v>29300</v>
-      </c>
       <c r="G102" s="3">
+        <v>466400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>86800</v>
+      </c>
+      <c r="I102" s="3">
         <v>-167800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-5200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>58000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-123000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-67400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>MSGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,230 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>516400</v>
+      </c>
+      <c r="E8" s="3">
         <v>294500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>99800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>43100</v>
       </c>
-      <c r="G8" s="3">
-        <v>23100</v>
-      </c>
       <c r="H8" s="3">
+        <v>168800</v>
+      </c>
+      <c r="I8" s="3">
         <v>170500</v>
       </c>
-      <c r="I8" s="3">
-        <v>762900</v>
-      </c>
       <c r="J8" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K8" s="3">
         <v>181900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>394100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>178000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>216500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>582400</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>284900</v>
+      </c>
+      <c r="E9" s="3">
         <v>153000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>54600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>28300</v>
       </c>
-      <c r="G9" s="3">
-        <v>28600</v>
-      </c>
       <c r="H9" s="3">
+        <v>85600</v>
+      </c>
+      <c r="I9" s="3">
         <v>92500</v>
       </c>
-      <c r="I9" s="3">
-        <v>508100</v>
-      </c>
       <c r="J9" s="3">
+        <v>540700</v>
+      </c>
+      <c r="K9" s="3">
         <v>249400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>405400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>123300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>163400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>348500</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>231500</v>
+      </c>
+      <c r="E10" s="3">
         <v>141500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>45200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14800</v>
       </c>
-      <c r="G10" s="3">
-        <v>-5500</v>
-      </c>
       <c r="H10" s="3">
+        <v>83200</v>
+      </c>
+      <c r="I10" s="3">
         <v>78000</v>
       </c>
-      <c r="I10" s="3">
-        <v>254800</v>
-      </c>
       <c r="J10" s="3">
+        <v>-531700</v>
+      </c>
+      <c r="K10" s="3">
         <v>-67500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-11300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>54700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>53100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>233900</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +906,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,44 +1004,47 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E14" s="3">
         <v>7800</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>19900</v>
       </c>
-      <c r="I14" s="3">
-        <v>105800</v>
-      </c>
       <c r="J14" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K14" s="3">
         <v>204400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>4000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1035,55 +1054,61 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E15" s="3">
         <v>29400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>26400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>37800</v>
       </c>
-      <c r="G15" s="3">
-        <v>23900</v>
-      </c>
       <c r="H15" s="3">
+        <v>25700</v>
+      </c>
+      <c r="I15" s="3">
         <v>28400</v>
       </c>
-      <c r="I15" s="3">
-        <v>104900</v>
-      </c>
       <c r="J15" s="3">
+        <v>130000</v>
+      </c>
+      <c r="K15" s="3">
         <v>51700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>54700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>26800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>27700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>54800</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1123,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>481100</v>
+      </c>
+      <c r="E17" s="3">
         <v>377800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>202200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>151700</v>
       </c>
-      <c r="G17" s="3">
-        <v>135700</v>
-      </c>
       <c r="H17" s="3">
+        <v>215600</v>
+      </c>
+      <c r="I17" s="3">
         <v>229200</v>
       </c>
-      <c r="I17" s="3">
-        <v>822700</v>
-      </c>
       <c r="J17" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="K17" s="3">
         <v>337500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>324500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>246100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>278600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>551300</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-83300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-102400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-108600</v>
       </c>
-      <c r="G18" s="3">
-        <v>-112600</v>
-      </c>
       <c r="H18" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-58700</v>
       </c>
-      <c r="I18" s="3">
-        <v>-59800</v>
-      </c>
       <c r="J18" s="3">
+        <v>94400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-155600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>69600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-68100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-62100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>31100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1243,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3000</v>
       </c>
-      <c r="E20" s="3">
-        <v>-3200</v>
-      </c>
       <c r="F20" s="3">
+        <v>19500</v>
+      </c>
+      <c r="G20" s="3">
         <v>24400</v>
       </c>
-      <c r="G20" s="3">
-        <v>-8500</v>
-      </c>
       <c r="H20" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="I20" s="3">
         <v>33100</v>
       </c>
-      <c r="I20" s="3">
-        <v>52500</v>
-      </c>
       <c r="J20" s="3">
+        <v>43800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-14800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>25300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-56900</v>
       </c>
-      <c r="E21" s="3">
-        <v>-79200</v>
-      </c>
       <c r="F21" s="3">
-        <v>-46400</v>
+        <v>-56500</v>
       </c>
       <c r="G21" s="3">
-        <v>-99100</v>
+        <v>-50000</v>
       </c>
       <c r="H21" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="I21" s="3">
         <v>2800</v>
       </c>
-      <c r="I21" s="3">
-        <v>97600</v>
-      </c>
       <c r="J21" s="3">
+        <v>163300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-144800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>111500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-28500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-34200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>111300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>18600</v>
+        <v>8200</v>
       </c>
       <c r="E22" s="3">
-        <v>12200</v>
-      </c>
-      <c r="F22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
         <v>14900</v>
       </c>
-      <c r="G22" s="3">
-        <v>7700</v>
-      </c>
       <c r="H22" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="I22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J22" s="3">
         <v>2300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6800</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-104900</v>
+        <v>9100</v>
       </c>
       <c r="E23" s="3">
-        <v>-117800</v>
+        <v>-95600</v>
       </c>
       <c r="F23" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="G23" s="3">
         <v>-99000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-128800</v>
-      </c>
       <c r="H23" s="3">
-        <v>-31200</v>
+        <v>-60400</v>
       </c>
       <c r="I23" s="3">
-        <v>-9600</v>
+        <v>-30900</v>
       </c>
       <c r="J23" s="3">
+        <v>135900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-171000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>83900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-56400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-67100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>49600</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-20600</v>
+        <v>4100</v>
       </c>
       <c r="E24" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-11900</v>
       </c>
-      <c r="G24" s="3">
-        <v>300</v>
-      </c>
       <c r="H24" s="3">
-        <v>9400</v>
+        <v>-300</v>
       </c>
       <c r="I24" s="3">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="J24" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-10100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1541,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-84300</v>
+        <v>5000</v>
       </c>
       <c r="E26" s="3">
-        <v>-119800</v>
+        <v>-76700</v>
       </c>
       <c r="F26" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="G26" s="3">
         <v>-87200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-129100</v>
-      </c>
       <c r="H26" s="3">
-        <v>-40600</v>
+        <v>-60100</v>
       </c>
       <c r="I26" s="3">
-        <v>-14700</v>
+        <v>-40300</v>
       </c>
       <c r="J26" s="3">
+        <v>122200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-160900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>82600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-56600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-66300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48800</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-86900</v>
+        <v>2300</v>
       </c>
       <c r="E27" s="3">
-        <v>-117800</v>
+        <v>-79200</v>
       </c>
       <c r="F27" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="G27" s="3">
         <v>-88300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-124900</v>
-      </c>
       <c r="H27" s="3">
-        <v>-36100</v>
+        <v>-55800</v>
       </c>
       <c r="I27" s="3">
-        <v>17200</v>
+        <v>-35800</v>
       </c>
       <c r="J27" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-134700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>81300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-56000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-60900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>54900</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1841,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E32" s="3">
         <v>3000</v>
       </c>
-      <c r="E32" s="3">
-        <v>3200</v>
-      </c>
       <c r="F32" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-24400</v>
       </c>
-      <c r="G32" s="3">
-        <v>8500</v>
-      </c>
       <c r="H32" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-33100</v>
       </c>
-      <c r="I32" s="3">
-        <v>-52500</v>
-      </c>
       <c r="J32" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="K32" s="3">
         <v>14800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-25300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-86900</v>
+        <v>2300</v>
       </c>
       <c r="E33" s="3">
-        <v>-117800</v>
+        <v>-79200</v>
       </c>
       <c r="F33" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="G33" s="3">
         <v>-88300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-124900</v>
-      </c>
       <c r="H33" s="3">
-        <v>-36100</v>
+        <v>-55800</v>
       </c>
       <c r="I33" s="3">
-        <v>17200</v>
+        <v>-35800</v>
       </c>
       <c r="J33" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-134700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>81300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-56000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-60900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>54900</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1991,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-86900</v>
+        <v>2300</v>
       </c>
       <c r="E35" s="3">
-        <v>-117800</v>
+        <v>-79200</v>
       </c>
       <c r="F35" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="G35" s="3">
         <v>-88300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-124900</v>
-      </c>
       <c r="H35" s="3">
-        <v>-36100</v>
+        <v>-55800</v>
       </c>
       <c r="I35" s="3">
-        <v>17200</v>
+        <v>-35800</v>
       </c>
       <c r="J35" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-134700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>81300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-56000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-60900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>54900</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,38 +2138,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1258100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1331500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1517000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1277700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1451400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>925800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>906600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1003900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>997700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,16 +2186,19 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2118,20 +2207,20 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>38900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>337200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>331000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>113000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2147,38 +2236,41 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>249600</v>
+      </c>
+      <c r="E43" s="3">
         <v>231400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>309500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>153800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>113600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>111400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>84100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>115700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>103300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2286,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,38 +2336,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>127700</v>
+      </c>
+      <c r="E45" s="3">
         <v>126300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>132300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>109300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>97300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>103000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>98700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>198800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>84200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,38 +2386,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1635400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1689100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1872700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1540800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1662300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1179100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1426500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1649400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1298200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,38 +2436,41 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E47" s="3">
         <v>48200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>49300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>273600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>257400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>255900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>245700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>274800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>257500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2382,38 +2486,41 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2639600</v>
+        <v>2944900</v>
       </c>
       <c r="E48" s="3">
-        <v>2387600</v>
+        <v>2698200</v>
       </c>
       <c r="F48" s="3">
+        <v>2436900</v>
+      </c>
+      <c r="G48" s="3">
         <v>2127100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2035500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1948500</v>
       </c>
-      <c r="I48" s="3">
-        <v>1866400</v>
-      </c>
       <c r="J48" s="3">
+        <v>1880800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1775500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1775900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,38 +2536,41 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>746000</v>
+      </c>
+      <c r="E49" s="3">
         <v>750200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>764300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>265700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>282800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>285700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>288500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>302800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>393500</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,8 +2586,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,20 +2686,23 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E52" s="3">
         <v>152200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>173500</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,8 +2712,8 @@
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>85100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2617,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,38 +2786,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5279400</v>
+        <v>5523100</v>
       </c>
       <c r="E54" s="3">
-        <v>5240700</v>
+        <v>5337900</v>
       </c>
       <c r="F54" s="3">
+        <v>5289900</v>
+      </c>
+      <c r="G54" s="3">
         <v>4104200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4121800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3586200</v>
       </c>
-      <c r="I54" s="3">
-        <v>3719200</v>
-      </c>
       <c r="J54" s="3">
+        <v>3733500</v>
+      </c>
+      <c r="K54" s="3">
         <v>3827200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3580000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,38 +2878,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E57" s="3">
         <v>26500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>26600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>40700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,37 +2926,40 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E58" s="3">
         <v>55200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>54000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>5400</v>
       </c>
       <c r="I58" s="3">
         <v>5400</v>
       </c>
       <c r="J58" s="3">
-        <v>4800</v>
+        <v>5400</v>
       </c>
       <c r="K58" s="3">
         <v>4800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>4800</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2843,38 +2976,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>769500</v>
+      </c>
+      <c r="E59" s="3">
         <v>672200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>649300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>498500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>462200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>437900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>487300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>602100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>496300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,38 +3026,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>869800</v>
+      </c>
+      <c r="E60" s="3">
         <v>753800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>729900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>513300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>472300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>451000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>510000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>625700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>541800</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,38 +3076,41 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1606800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1621200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1650600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>657000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>649400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>26800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>28100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>30000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2984,38 +3126,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>715900</v>
+        <v>776700</v>
       </c>
       <c r="E62" s="3">
-        <v>656000</v>
+        <v>726500</v>
       </c>
       <c r="F62" s="3">
+        <v>591100</v>
+      </c>
+      <c r="G62" s="3">
         <v>301200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>290300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>307400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>306700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>332600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>318100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,38 +3326,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3244500</v>
+        <v>3411300</v>
       </c>
       <c r="E66" s="3">
-        <v>3112500</v>
+        <v>3255100</v>
       </c>
       <c r="F66" s="3">
+        <v>3121400</v>
+      </c>
+      <c r="G66" s="3">
         <v>1498700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1437700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>814300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>877600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1028300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>974100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,31 +3596,34 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-209500</v>
+        <v>-173300</v>
       </c>
       <c r="E72" s="3">
-        <v>-122700</v>
+        <v>-175600</v>
       </c>
       <c r="F72" s="3">
+        <v>-96300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-152400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-72800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>52100</v>
       </c>
-      <c r="I72" s="3">
-        <v>141900</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>142300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3464,8 +3637,8 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
@@ -3473,8 +3646,11 @@
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,38 +3796,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2034900</v>
+        <v>2111800</v>
       </c>
       <c r="E76" s="3">
-        <v>2128200</v>
+        <v>2082900</v>
       </c>
       <c r="F76" s="3">
+        <v>2168500</v>
+      </c>
+      <c r="G76" s="3">
         <v>2605500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2684100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2771900</v>
       </c>
-      <c r="I76" s="3">
-        <v>2841600</v>
-      </c>
       <c r="J76" s="3">
+        <v>2856000</v>
+      </c>
+      <c r="K76" s="3">
         <v>2798900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2605900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3896,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-86900</v>
+        <v>2300</v>
       </c>
       <c r="E81" s="3">
-        <v>-117800</v>
+        <v>-79200</v>
       </c>
       <c r="F81" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="G81" s="3">
         <v>-88300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-124900</v>
-      </c>
       <c r="H81" s="3">
-        <v>-36100</v>
+        <v>-55800</v>
       </c>
       <c r="I81" s="3">
-        <v>17200</v>
+        <v>-35800</v>
       </c>
       <c r="J81" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-134700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>81300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-56000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-60900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>54900</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4023,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E83" s="3">
         <v>29400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>26400</v>
       </c>
-      <c r="F83" s="3">
-        <v>37800</v>
-      </c>
       <c r="G83" s="3">
-        <v>22000</v>
+        <v>34100</v>
       </c>
       <c r="H83" s="3">
+        <v>25700</v>
+      </c>
+      <c r="I83" s="3">
         <v>28400</v>
       </c>
-      <c r="I83" s="3">
-        <v>104900</v>
-      </c>
       <c r="J83" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K83" s="3">
         <v>26000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>27400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>26800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>27700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>54800</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4321,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2300</v>
+        <v>125800</v>
       </c>
       <c r="E89" s="3">
-        <v>4300</v>
+        <v>7000</v>
       </c>
       <c r="F89" s="3">
-        <v>-78200</v>
+        <v>39200</v>
       </c>
       <c r="G89" s="3">
-        <v>-120100</v>
+        <v>-191400</v>
       </c>
       <c r="H89" s="3">
-        <v>-95600</v>
+        <v>-7200</v>
       </c>
       <c r="I89" s="3">
-        <v>96000</v>
+        <v>-95200</v>
       </c>
       <c r="J89" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="K89" s="3">
         <v>33200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>122900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-19200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>46800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>24700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4393,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-175800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-137300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-130500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-102300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-107200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-112100</v>
       </c>
-      <c r="I91" s="3">
-        <v>-452400</v>
-      </c>
       <c r="J91" s="3">
+        <v>-125900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-118500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-121700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-86400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-69700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-78900</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4541,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-137000</v>
+        <v>-186200</v>
       </c>
       <c r="E94" s="3">
-        <v>-130500</v>
+        <v>-146300</v>
       </c>
       <c r="F94" s="3">
+        <v>-165400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-47600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>194300</v>
       </c>
-      <c r="I94" s="3">
-        <v>-389700</v>
-      </c>
       <c r="J94" s="3">
+        <v>88200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-348300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-63000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-66600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-71200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13700</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4811,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-44800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>15500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>621400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7000</v>
       </c>
-      <c r="I100" s="3">
-        <v>122900</v>
-      </c>
       <c r="J100" s="3">
+        <v>-145600</v>
+      </c>
+      <c r="K100" s="3">
         <v>309400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-35300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-41200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9600</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
-      </c>
-      <c r="E101" s="3">
-        <v>100</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
       </c>
       <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5800</v>
       </c>
-      <c r="I101" s="3">
-        <v>2900</v>
-      </c>
       <c r="J101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K101" s="3">
         <v>2200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-73500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-184500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-110600</v>
       </c>
-      <c r="F102" s="3">
-        <v>-175300</v>
-      </c>
       <c r="G102" s="3">
-        <v>466400</v>
+        <v>-262100</v>
       </c>
       <c r="H102" s="3">
+        <v>553300</v>
+      </c>
+      <c r="I102" s="3">
         <v>86800</v>
       </c>
-      <c r="I102" s="3">
-        <v>-167800</v>
-      </c>
       <c r="J102" s="3">
+        <v>-97500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-5200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>58000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-123000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-67400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1700</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
   <si>
     <t>MSGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,256 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>453500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>460100</v>
+      </c>
+      <c r="F8" s="3">
         <v>516400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>294500</v>
       </c>
-      <c r="F8" s="3">
-        <v>99800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>43100</v>
-      </c>
       <c r="H8" s="3">
+        <v>260600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>214300</v>
+      </c>
+      <c r="J8" s="3">
         <v>168800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>170500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>9000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>181900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>394100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>178000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>216500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>582400</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>270100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>250600</v>
+      </c>
+      <c r="F9" s="3">
         <v>284900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>153000</v>
       </c>
-      <c r="F9" s="3">
-        <v>54600</v>
-      </c>
-      <c r="G9" s="3">
-        <v>28300</v>
-      </c>
       <c r="H9" s="3">
+        <v>120500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>102100</v>
+      </c>
+      <c r="J9" s="3">
         <v>85600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>92500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>540700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>249400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>405400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>123300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>163400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>348500</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>183400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>209500</v>
+      </c>
+      <c r="F10" s="3">
         <v>231500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>141500</v>
       </c>
-      <c r="F10" s="3">
-        <v>45200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>14800</v>
-      </c>
       <c r="H10" s="3">
+        <v>140100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>112200</v>
+      </c>
+      <c r="J10" s="3">
         <v>83200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>78000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-531700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-67500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-11300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>54700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>53100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>233900</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,8 +933,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,8 +985,14 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,108 +1041,126 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F14" s="3">
         <v>-8000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>7800</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>19900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>3600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>204400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>4000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>28600</v>
+      </c>
+      <c r="F15" s="3">
         <v>30500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>29400</v>
       </c>
-      <c r="F15" s="3">
-        <v>26400</v>
-      </c>
-      <c r="G15" s="3">
-        <v>37800</v>
-      </c>
       <c r="H15" s="3">
+        <v>28300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>39600</v>
+      </c>
+      <c r="J15" s="3">
         <v>25700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>28400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>130000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>51700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>54700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>26800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>27700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>54800</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1176,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>546100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>458100</v>
+      </c>
+      <c r="F17" s="3">
         <v>481100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>377800</v>
       </c>
-      <c r="F17" s="3">
-        <v>202200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>151700</v>
-      </c>
       <c r="H17" s="3">
+        <v>304600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>253100</v>
+      </c>
+      <c r="J17" s="3">
         <v>215600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>229200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>-85400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>337500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>324500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>246100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>278600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>551300</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-92600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F18" s="3">
         <v>35300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-83300</v>
       </c>
-      <c r="F18" s="3">
-        <v>-102400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-108600</v>
-      </c>
       <c r="H18" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="J18" s="3">
         <v>-46800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-58700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>94400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-155600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>69600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-68100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-62100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>31100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,258 +1310,290 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-18100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
-        <v>19500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>24400</v>
-      </c>
       <c r="H20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>26000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-8300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>33100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>43800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-14800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>14400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>12800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>25300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-76500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F21" s="3">
         <v>47800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-56900</v>
       </c>
-      <c r="F21" s="3">
-        <v>-56500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-50000</v>
-      </c>
       <c r="H21" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>26800</v>
+      </c>
+      <c r="J21" s="3">
         <v>-29400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>163300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-144800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>111500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-28500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-34200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>111300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F22" s="3">
         <v>8200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>9200</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>14900</v>
-      </c>
       <c r="H22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J22" s="3">
         <v>5300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>5300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>5200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>6800</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-116500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F23" s="3">
         <v>9100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-95600</v>
       </c>
-      <c r="F23" s="3">
-        <v>-82900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-99000</v>
-      </c>
       <c r="H23" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-60400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-30900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>135900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-171000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>83900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-56400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-67100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>49600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F24" s="3">
         <v>4100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-18900</v>
       </c>
-      <c r="F24" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-11900</v>
-      </c>
       <c r="H24" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>9500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>13700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-10100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1642,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-99200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="F26" s="3">
         <v>5000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-76700</v>
       </c>
-      <c r="F26" s="3">
-        <v>-84900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-87200</v>
-      </c>
       <c r="H26" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="J26" s="3">
         <v>-60100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-40300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>122200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-160900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>82600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-56600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-66300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>48800</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-103100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="F27" s="3">
         <v>2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-79200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-82900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-88300</v>
-      </c>
       <c r="H27" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-55800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-35800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>128700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-134700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>81300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-56000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-60900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>54900</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1810,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1866,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1922,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,108 +1978,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F32" s="3">
         <v>18100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
-        <v>-19500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-24400</v>
-      </c>
       <c r="H32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="J32" s="3">
         <v>8300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-33100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-43800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>14800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-14400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-12800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-25300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-103100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="F33" s="3">
         <v>2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-79200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-82900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-88300</v>
-      </c>
       <c r="H33" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-55800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-35800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>128700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-134700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>81300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-56000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-60900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>54900</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2146,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-103100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="F35" s="3">
         <v>2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-79200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-82900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-88300</v>
-      </c>
       <c r="H35" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-55800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-35800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>128700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-134700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>81300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-56000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-60900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>54900</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2289,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,44 +2311,46 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>828500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>999100</v>
+      </c>
+      <c r="F41" s="3">
         <v>1258100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1331500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1517000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1277700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1451400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>925800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>906600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1003900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>997700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,8 +2363,14 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2200,33 +2380,33 @@
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>38900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>337200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>331000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>113000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,44 +2419,50 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>254800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>327400</v>
+      </c>
+      <c r="F43" s="3">
         <v>249600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>231400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>309500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>153800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>113600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>111400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>84100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>115700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>103300</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,8 +2475,14 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,44 +2531,50 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>135300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>131700</v>
+      </c>
+      <c r="F45" s="3">
         <v>127700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>126300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>132300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>109300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>97300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>103000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>98700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>198800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>84200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,44 +2587,50 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1218700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1458200</v>
+      </c>
+      <c r="F46" s="3">
         <v>1635400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1689100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1872700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1540800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1662300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1179100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1426500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1649400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1298200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,44 +2643,50 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F47" s="3">
         <v>46700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>48200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>49300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>273600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>257400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>255900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>245700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>274800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>257500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2489,44 +2699,50 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3385600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3169700</v>
+      </c>
+      <c r="F48" s="3">
         <v>2944900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2698200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2436900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2127100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2035500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1948500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1880800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1775500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1775900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,44 +2755,50 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>728100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>741100</v>
+      </c>
+      <c r="F49" s="3">
         <v>746000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>750200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>764300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>265700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>282800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>285700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>288500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>302800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>393500</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2811,14 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2867,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,38 +2923,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>145300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>166200</v>
+      </c>
+      <c r="F52" s="3">
         <v>150000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>152200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>173500</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>85100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2979,14 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,44 +3035,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5522200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5580400</v>
+      </c>
+      <c r="F54" s="3">
         <v>5523100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5337900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5289900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4104200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4121800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3586200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3733500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3827200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3580000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +3091,14 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +3117,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,44 +3139,46 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>40400</v>
+      </c>
+      <c r="F57" s="3">
         <v>43800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>26500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>26600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>10400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>7700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>17300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>18800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>40700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,44 +3191,50 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>66000</v>
+      </c>
+      <c r="F58" s="3">
         <v>56500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>55200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>54000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>5100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2979,44 +3247,50 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>850600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>858500</v>
+      </c>
+      <c r="F59" s="3">
         <v>769500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>672200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>649300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>498500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>462200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>437900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>487300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>602100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>496300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,44 +3303,50 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>956400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>964900</v>
+      </c>
+      <c r="F60" s="3">
         <v>869800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>753800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>729900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>513300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>472300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>451000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>510000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>625700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>541800</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,44 +3359,50 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1669200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1584100</v>
+      </c>
+      <c r="F61" s="3">
         <v>1606800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1621200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1650600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>657000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>649400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>26800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>28100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>30000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>31200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3129,44 +3415,50 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>736900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>772000</v>
+      </c>
+      <c r="F62" s="3">
         <v>776700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>726500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>591100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>301200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>290300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>307400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>306700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>332600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>318100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3471,14 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3527,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3583,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,44 +3639,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3558900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3473600</v>
+      </c>
+      <c r="F66" s="3">
         <v>3411300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3255100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3121400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1498700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1437700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>814300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>877600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1028300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>974100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3695,14 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3721,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3773,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3829,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3885,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,38 +3941,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-290700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-190800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-173300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-175600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-96300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-152400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-72800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>52100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>142300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3640,17 +3988,23 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>0</v>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +4053,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +4109,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,44 +4165,50 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1963200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2106800</v>
+      </c>
+      <c r="F76" s="3">
         <v>2111800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2082900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2168500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2605500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2684100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2771900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2856000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2798900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2605900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4221,14 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4277,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-103100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="F81" s="3">
         <v>2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-79200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-82900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-88300</v>
-      </c>
       <c r="H81" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-55800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-35800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>128700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-134700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>81300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-56000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-60900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>54900</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,58 +4420,66 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>28600</v>
+      </c>
+      <c r="F83" s="3">
         <v>30500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>29400</v>
       </c>
-      <c r="F83" s="3">
-        <v>26400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>34100</v>
-      </c>
       <c r="H83" s="3">
+        <v>28300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>39600</v>
+      </c>
+      <c r="J83" s="3">
         <v>25700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>28400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>24600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>26000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>27400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>26800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>27700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>54800</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4528,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4584,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4640,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4696,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4752,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="F89" s="3">
         <v>125800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>7000</v>
       </c>
-      <c r="F89" s="3">
-        <v>39200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-191400</v>
-      </c>
       <c r="H89" s="3">
+        <v>55400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="J89" s="3">
         <v>-7200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-95200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-38900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>33200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>122900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-19200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>46800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>24700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4834,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-240200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-203400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-175800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-137300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-130500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-102300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-107200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-112100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-125900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-118500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-121700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-86400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-69700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-78900</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4942,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4998,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-256200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-215400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-186200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-146300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-165400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-47600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>194300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>88200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-348300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-63000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-66600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-71200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-13700</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +5080,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +5132,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +5188,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5244,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,154 +5300,178 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-12800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-44800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>15500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>3500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>621400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-7000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-145600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>309400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-5600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-35300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-41200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-9600</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>600</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>5800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>2200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>3600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-174700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-261300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-73500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-184500</v>
       </c>
-      <c r="F102" s="3">
-        <v>-110600</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-262100</v>
-      </c>
       <c r="H102" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-134800</v>
+      </c>
+      <c r="J102" s="3">
         <v>553300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>86800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-97500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-5200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>58000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-123000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-67400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1700</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>MSGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,281 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>642200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>401200</v>
+      </c>
+      <c r="F8" s="3">
         <v>453500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>460100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>516400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>294500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>260600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>214300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>168800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>170500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>9000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>181900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>394100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>178000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>216500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>582400</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>349000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>253900</v>
+      </c>
+      <c r="F9" s="3">
         <v>270100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>250600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>284900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>153000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>120500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>102100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>85600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>92500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>540700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>249400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>405400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>123300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>163400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>348500</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>293200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>147300</v>
+      </c>
+      <c r="F10" s="3">
         <v>183400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>209500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>231500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>141500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>140100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>112200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>83200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>78000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-531700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-67500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-11300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>54700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>53100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>233900</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,8 +960,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,8 +1018,14 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,120 +1080,138 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F14" s="3">
         <v>38300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>9400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-8000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>7800</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>19900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>3600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>204400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>4000</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>29800</v>
+      </c>
+      <c r="F15" s="3">
         <v>36000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>28600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>30500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>29400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>28300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>39600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>25700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>28400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>130000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>51700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>54700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>26800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>27700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>54800</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1229,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>568200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>446100</v>
+      </c>
+      <c r="F17" s="3">
         <v>546100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>458100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>481100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>377800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>304600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>253100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>215600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>229200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>-85400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>337500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>324500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>246100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>278600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>551300</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-92600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>35300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-83300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-44000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-38800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-46800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-58700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>94400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-155600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>69600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-68100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-62100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>31100</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,288 +1377,320 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-19900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-9200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-18100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>26000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-8300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>33100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>43800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-14800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>14400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>12800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>25300</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>102800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-76500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>21500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>47800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-56900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-18600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>26800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-29400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>163300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-144800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>111500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-28500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>111300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F22" s="3">
         <v>3900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>5800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>8200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>9200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>3400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>6500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>5300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>5200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>6800</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-116500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-13000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>9100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-95600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-50300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-19300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-60400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-30900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>135900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-171000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>83900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-56400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-67100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>49600</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F24" s="3">
         <v>-17300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>6300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-18900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-10000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>6600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>9500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>13700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-10100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1745,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-99200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-19300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>5000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-76700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-40300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-25800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-60100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-40300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>122200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-160900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>82600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-56600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-66300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>48800</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-103100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-17500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-79200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-38300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-27000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-55800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-35800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>128700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-134700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>81300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-56000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-60900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>54900</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1931,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1993,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +2055,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,120 +2117,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F32" s="3">
         <v>19900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>9200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>18100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-26000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>8300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-33100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-43800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>14800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-14400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-12800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-25300</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-103100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-17500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-79200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-38300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-27000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-55800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-35800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>128700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-134700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>81300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-56000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-60900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>54900</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2303,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-103100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-17500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-79200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-38300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-27000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-55800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-35800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>128700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-134700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>81300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-56000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-60900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>54900</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2460,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,50 +2484,52 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>432200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>441400</v>
+      </c>
+      <c r="F41" s="3">
         <v>828500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>999100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1258100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1331500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1517000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1277700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1451400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>925800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>906600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1003900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>997700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,22 +2542,28 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -2396,23 +2575,23 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>38900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>337200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>331000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>113000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2425,50 +2604,56 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>217100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>209500</v>
+      </c>
+      <c r="F43" s="3">
         <v>254800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>327400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>249600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>231400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>309500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>153800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>113600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>111400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>84100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>115700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>103300</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2481,8 +2666,14 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,50 +2728,56 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>266900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>190100</v>
+      </c>
+      <c r="F45" s="3">
         <v>135300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>131700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>127700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>126300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>132300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>109300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>97300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>103000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>98700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>198800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>84200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,50 +2790,56 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>916200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>840900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1218700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1458200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1635400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1689100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1872700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1540800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1662300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1179100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1426500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1649400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1298200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,50 +2852,56 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>900</v>
+      </c>
+      <c r="F47" s="3">
         <v>44600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>45300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>46700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>48200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>49300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>273600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>257400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>255900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>245700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>274800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>257500</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,50 +2914,56 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4008800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3684500</v>
+      </c>
+      <c r="F48" s="3">
         <v>3385600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3169700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2944900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2698200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2436900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2127100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2035500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1948500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1880800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1775500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1775900</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,50 +2976,56 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>717400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>722200</v>
+      </c>
+      <c r="F49" s="3">
         <v>728100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>741100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>746000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>750200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>764300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>265700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>282800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>285700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>288500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>302800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>393500</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +3038,14 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +3100,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,44 +3162,50 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>206600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>177600</v>
+      </c>
+      <c r="F52" s="3">
         <v>145300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>166200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>150000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>152200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>173500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
         <v>85100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3224,14 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,50 +3286,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5849700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5426100</v>
+      </c>
+      <c r="F54" s="3">
         <v>5522200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5580400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5523100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5337900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5289900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4104200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4121800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3586200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3733500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3827200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3580000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3348,14 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3376,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,50 +3400,52 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>106300</v>
+      </c>
+      <c r="F57" s="3">
         <v>32000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>40400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>43800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>26500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>26600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>10400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>7700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>17300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>18800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>40700</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,50 +3458,56 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>102500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>86200</v>
+      </c>
+      <c r="F58" s="3">
         <v>73800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>66000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>56500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>55200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>54000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3253,50 +3520,56 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>734000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>727700</v>
+      </c>
+      <c r="F59" s="3">
         <v>850600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>858500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>769500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>672200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>649300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>498500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>462200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>437900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>487300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>602100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>496300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,50 +3582,56 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>964500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>920100</v>
+      </c>
+      <c r="F60" s="3">
         <v>956400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>964900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>869800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>753800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>729900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>513300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>472300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>451000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>510000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>625700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>541800</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,50 +3644,56 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1885300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1652600</v>
+      </c>
+      <c r="F61" s="3">
         <v>1669200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1584100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1606800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1621200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1650600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>657000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>649400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>26800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>28100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>30000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>31200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3421,50 +3706,56 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>790800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>748900</v>
+      </c>
+      <c r="F62" s="3">
         <v>736900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>772000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>776700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>726500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>591100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>301200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>290300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>307400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>306700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>332600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>318100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3768,14 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3830,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3892,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,50 +3954,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3843800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3519100</v>
+      </c>
+      <c r="F66" s="3">
         <v>3558900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3473600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3411300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3255100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3121400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1498700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1437700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>814300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>877600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1028300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>974100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +4016,14 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +4044,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +4102,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4164,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4226,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,44 +4288,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-267900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-335500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-290700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-190800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-173300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-175600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-96300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-152400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-72800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>52100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>142300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3994,17 +4341,23 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
-      <c r="S72" s="3">
-        <v>0</v>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4412,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4474,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,50 +4536,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2005900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1907000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1963200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2106800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2111800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2082900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2168500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2605500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2684100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2771900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2856000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2798900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2605900</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4598,14 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4660,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-103100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-17500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-79200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-38300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-27000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-55800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-35800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>128700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-134700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>81300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-56000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-60900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>54900</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4817,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>29800</v>
+      </c>
+      <c r="F83" s="3">
         <v>36000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>28600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>30500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>29400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>28300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>39600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>25700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>28400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>24600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>26000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>27400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>26800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>27700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>54800</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4937,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4999,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +5061,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +5123,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +5185,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>136100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="F89" s="3">
         <v>35100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-26600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>125800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>7000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>55400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-11600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-7200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-95200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-38900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>33200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>122900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-19200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>46800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>24700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5275,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-288700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-270100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-240200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-203400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-175800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-137300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-130500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-102300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-107200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-112100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-125900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-118500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-121700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-86400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-69700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-78900</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5395,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5457,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-290700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-285200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-256200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-215400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-186200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-146300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-165400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-47600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>194300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>88200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-348300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-63000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-66600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-71200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-13700</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5547,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5605,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5667,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5729,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,172 +5791,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>249200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="F100" s="3">
         <v>47100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-19900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-12800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-44800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>15500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>3500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>621400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-7000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-145600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>309400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-5600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-35300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-41200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-9600</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>5800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>3600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>94800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-387100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-174700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-261300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-73500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-184500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-86400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-134800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>553300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>86800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-97500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-5200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>58000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-123000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-67400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1700</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="92">
   <si>
     <t>MSGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,309 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
-        <v>44834</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>642200</v>
+        <v>147900</v>
       </c>
       <c r="E8" s="3">
-        <v>401200</v>
+        <v>201200</v>
       </c>
       <c r="F8" s="3">
-        <v>453500</v>
+        <v>502300</v>
       </c>
       <c r="G8" s="3">
-        <v>460100</v>
+        <v>178300</v>
       </c>
       <c r="H8" s="3">
-        <v>516400</v>
+        <v>194000</v>
       </c>
       <c r="I8" s="3">
+        <v>281200</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
         <v>294500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>260600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>214300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>168800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>170500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>9000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>181900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>394100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>178000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>216500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>582400</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>349000</v>
+        <v>102500</v>
       </c>
       <c r="E9" s="3">
-        <v>253900</v>
+        <v>115100</v>
       </c>
       <c r="F9" s="3">
-        <v>270100</v>
+        <v>282300</v>
       </c>
       <c r="G9" s="3">
-        <v>250600</v>
+        <v>125100</v>
       </c>
       <c r="H9" s="3">
-        <v>284900</v>
+        <v>110000</v>
       </c>
       <c r="I9" s="3">
+        <v>182200</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3">
         <v>153000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>120500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>102100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>85600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>92500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>540700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>249400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>405400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>123300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>163400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>348500</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>293200</v>
+        <v>45400</v>
       </c>
       <c r="E10" s="3">
-        <v>147300</v>
+        <v>86100</v>
       </c>
       <c r="F10" s="3">
-        <v>183400</v>
+        <v>220000</v>
       </c>
       <c r="G10" s="3">
-        <v>209500</v>
+        <v>53200</v>
       </c>
       <c r="H10" s="3">
-        <v>231500</v>
+        <v>84000</v>
       </c>
       <c r="I10" s="3">
+        <v>99000</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3">
         <v>141500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>140100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>112200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>83200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>78000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-531700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-67500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>54700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>53100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>233900</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +990,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1024,8 +1054,14 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,132 +1122,150 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G14" s="3">
+        <v>35600</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>7800</v>
       </c>
-      <c r="E14" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>38300</v>
-      </c>
-      <c r="G14" s="3">
-        <v>9400</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>7800</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>19900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>3600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>204400</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>4000</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>29100</v>
+        <v>14100</v>
       </c>
       <c r="E15" s="3">
-        <v>29800</v>
+        <v>14800</v>
       </c>
       <c r="F15" s="3">
-        <v>36000</v>
+        <v>31600</v>
       </c>
       <c r="G15" s="3">
-        <v>28600</v>
+        <v>20400</v>
       </c>
       <c r="H15" s="3">
-        <v>30500</v>
+        <v>16000</v>
       </c>
       <c r="I15" s="3">
+        <v>33200</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
         <v>29400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>28300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>39600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>25700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>28400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>130000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>51700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>54700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>26800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>27700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>54800</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1285,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>568200</v>
+        <v>169700</v>
       </c>
       <c r="E17" s="3">
-        <v>446100</v>
+        <v>176600</v>
       </c>
       <c r="F17" s="3">
-        <v>546100</v>
+        <v>400200</v>
       </c>
       <c r="G17" s="3">
-        <v>458100</v>
+        <v>219500</v>
       </c>
       <c r="H17" s="3">
-        <v>481100</v>
+        <v>178200</v>
       </c>
       <c r="I17" s="3">
+        <v>297100</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3">
         <v>377800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>304600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>253100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>215600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>229200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>-85400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>337500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>324500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>246100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>278600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>551300</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>74000</v>
+        <v>-21800</v>
       </c>
       <c r="E18" s="3">
-        <v>-44900</v>
+        <v>24600</v>
       </c>
       <c r="F18" s="3">
-        <v>-92600</v>
+        <v>102100</v>
       </c>
       <c r="G18" s="3">
-        <v>2000</v>
+        <v>-41200</v>
       </c>
       <c r="H18" s="3">
-        <v>35300</v>
+        <v>15800</v>
       </c>
       <c r="I18" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-83300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-44000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-38800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-46800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-58700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>94400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-155600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>69600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-68100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-62100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>31100</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,318 +1447,350 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-300</v>
+        <v>12100</v>
       </c>
       <c r="E20" s="3">
-        <v>5500</v>
+        <v>10600</v>
       </c>
       <c r="F20" s="3">
-        <v>-19900</v>
+        <v>2100</v>
       </c>
       <c r="G20" s="3">
-        <v>-9200</v>
+        <v>-19200</v>
       </c>
       <c r="H20" s="3">
-        <v>-18100</v>
+        <v>-7000</v>
       </c>
       <c r="I20" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>26000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-8300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>33100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>43800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-14800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>14400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>12800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>25300</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>102800</v>
+        <v>4300</v>
       </c>
       <c r="E21" s="3">
-        <v>-9600</v>
+        <v>50000</v>
       </c>
       <c r="F21" s="3">
-        <v>-76500</v>
+        <v>135700</v>
       </c>
       <c r="G21" s="3">
-        <v>21500</v>
+        <v>-40100</v>
       </c>
       <c r="H21" s="3">
-        <v>47800</v>
+        <v>24900</v>
       </c>
       <c r="I21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-56900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-18600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>26800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-29400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>163300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-144800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>111500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-28500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-34200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>111300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>900</v>
+        <v>13800</v>
       </c>
       <c r="E22" s="3">
-        <v>2200</v>
+        <v>13400</v>
       </c>
       <c r="F22" s="3">
-        <v>3900</v>
+        <v>24600</v>
       </c>
       <c r="G22" s="3">
-        <v>5800</v>
+        <v>13300</v>
       </c>
       <c r="H22" s="3">
-        <v>8200</v>
+        <v>13000</v>
       </c>
       <c r="I22" s="3">
+        <v>26800</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
         <v>9200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>6500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>5300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>5300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>5200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>6800</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>72800</v>
+        <v>-23600</v>
       </c>
       <c r="E23" s="3">
-        <v>-41500</v>
+        <v>21800</v>
       </c>
       <c r="F23" s="3">
-        <v>-116500</v>
+        <v>79500</v>
       </c>
       <c r="G23" s="3">
-        <v>-13000</v>
+        <v>-73800</v>
       </c>
       <c r="H23" s="3">
-        <v>9100</v>
+        <v>-4100</v>
       </c>
       <c r="I23" s="3">
+        <v>-58400</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="3">
         <v>-95600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-50300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-19300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-60400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-30900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>135900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-171000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>83900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-56400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-67100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>49600</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="E24" s="3">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>-17300</v>
+        <v>700</v>
       </c>
       <c r="G24" s="3">
-        <v>6300</v>
+        <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
         <v>-18900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-10000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>6600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>9500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>13700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-10100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>800</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1851,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>70600</v>
+        <v>-24500</v>
       </c>
       <c r="E26" s="3">
-        <v>-44000</v>
+        <v>21700</v>
       </c>
       <c r="F26" s="3">
-        <v>-99200</v>
+        <v>78800</v>
       </c>
       <c r="G26" s="3">
-        <v>-19300</v>
+        <v>-73700</v>
       </c>
       <c r="H26" s="3">
-        <v>5000</v>
+        <v>-4100</v>
       </c>
       <c r="I26" s="3">
+        <v>-58400</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="3">
         <v>-76700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-40300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-25800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-60100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-40300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>122200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-160900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>82600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-56600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-66300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>48800</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>67600</v>
+        <v>-24500</v>
       </c>
       <c r="E27" s="3">
-        <v>-44800</v>
+        <v>21700</v>
       </c>
       <c r="F27" s="3">
-        <v>-103100</v>
+        <v>79400</v>
       </c>
       <c r="G27" s="3">
-        <v>-17500</v>
+        <v>-71400</v>
       </c>
       <c r="H27" s="3">
-        <v>2300</v>
+        <v>-3900</v>
       </c>
       <c r="I27" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="3">
         <v>-79200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-38300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-27000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-55800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-35800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>128700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-134700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>81300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-56000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-60900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>54900</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +2055,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1999,8 +2123,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2191,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,132 +2259,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>300</v>
+        <v>-12100</v>
       </c>
       <c r="E32" s="3">
-        <v>-5500</v>
+        <v>-10600</v>
       </c>
       <c r="F32" s="3">
-        <v>19900</v>
+        <v>-2100</v>
       </c>
       <c r="G32" s="3">
-        <v>9200</v>
+        <v>19200</v>
       </c>
       <c r="H32" s="3">
-        <v>18100</v>
+        <v>7000</v>
       </c>
       <c r="I32" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-26000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>8300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-33100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-43800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>14800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-12800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-25300</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>67600</v>
+        <v>-24500</v>
       </c>
       <c r="E33" s="3">
-        <v>-44800</v>
+        <v>21700</v>
       </c>
       <c r="F33" s="3">
-        <v>-103100</v>
+        <v>79400</v>
       </c>
       <c r="G33" s="3">
-        <v>-17500</v>
+        <v>-71400</v>
       </c>
       <c r="H33" s="3">
-        <v>2300</v>
+        <v>-3900</v>
       </c>
       <c r="I33" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="3">
         <v>-79200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-38300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-27000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-55800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-35800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>128700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-134700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>81300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-56000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-60900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>54900</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2463,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>67600</v>
+        <v>-24500</v>
       </c>
       <c r="E35" s="3">
-        <v>-44800</v>
+        <v>21700</v>
       </c>
       <c r="F35" s="3">
-        <v>-103100</v>
+        <v>79400</v>
       </c>
       <c r="G35" s="3">
-        <v>-17500</v>
+        <v>-71400</v>
       </c>
       <c r="H35" s="3">
-        <v>2300</v>
+        <v>-3900</v>
       </c>
       <c r="I35" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="3">
         <v>-79200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-38300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-27000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-55800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-35800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>128700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-134700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>81300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-56000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-60900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>54900</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
-        <v>44834</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2634,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,56 +2660,58 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>432200</v>
+        <v>76100</v>
       </c>
       <c r="E41" s="3">
-        <v>441400</v>
+        <v>122700</v>
       </c>
       <c r="F41" s="3">
-        <v>828500</v>
-      </c>
-      <c r="G41" s="3">
-        <v>999100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1258100</v>
-      </c>
-      <c r="I41" s="3">
+        <v>153500</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="3">
         <v>1331500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1517000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1277700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1451400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>925800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>906600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1003900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>997700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2548,8 +2724,14 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2581,23 +2763,23 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>38900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>337200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>331000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>113000</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,56 +2792,62 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>217100</v>
+        <v>144600</v>
       </c>
       <c r="E43" s="3">
-        <v>209500</v>
+        <v>219500</v>
       </c>
       <c r="F43" s="3">
-        <v>254800</v>
-      </c>
-      <c r="G43" s="3">
-        <v>327400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>249600</v>
-      </c>
-      <c r="I43" s="3">
+        <v>196900</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
         <v>231400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>309500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>153800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>113600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>111400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>84100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>115700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>103300</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2672,31 +2860,37 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>2500</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2734,56 +2928,62 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>266900</v>
+        <v>72000</v>
       </c>
       <c r="E45" s="3">
-        <v>190100</v>
+        <v>63000</v>
       </c>
       <c r="F45" s="3">
-        <v>135300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>131700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>127700</v>
-      </c>
-      <c r="I45" s="3">
+        <v>66500</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="3">
         <v>126300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>132300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>109300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>97300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>103000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>98700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>198800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>84200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,56 +2996,62 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>916200</v>
+        <v>295300</v>
       </c>
       <c r="E46" s="3">
-        <v>840900</v>
+        <v>408400</v>
       </c>
       <c r="F46" s="3">
-        <v>1218700</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1458200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1635400</v>
-      </c>
-      <c r="I46" s="3">
+        <v>419300</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3">
         <v>1689100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1872700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1540800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1662300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1179100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1426500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1649400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1298200</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2858,56 +3064,62 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>44600</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>45300</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>46700</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>48200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>49300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>273600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>257400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>255900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>245700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>274800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>257500</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2920,56 +3132,62 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4008800</v>
+        <v>864700</v>
       </c>
       <c r="E48" s="3">
-        <v>3684500</v>
+        <v>886000</v>
       </c>
       <c r="F48" s="3">
-        <v>3385600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>3169700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2944900</v>
-      </c>
-      <c r="I48" s="3">
+        <v>905000</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K48" s="3">
         <v>2698200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2436900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2127100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2035500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1948500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1880800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1775500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1775900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,56 +3200,62 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>717400</v>
+        <v>132800</v>
       </c>
       <c r="E49" s="3">
-        <v>722200</v>
+        <v>132800</v>
       </c>
       <c r="F49" s="3">
-        <v>728100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>741100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>746000</v>
-      </c>
-      <c r="I49" s="3">
+        <v>132800</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="3">
         <v>750200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>764300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>265700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>282800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>285700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>288500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>302800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>393500</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3044,8 +3268,14 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3336,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,50 +3404,56 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>206600</v>
+        <v>108400</v>
       </c>
       <c r="E52" s="3">
-        <v>177600</v>
+        <v>118500</v>
       </c>
       <c r="F52" s="3">
-        <v>145300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>166200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>150000</v>
-      </c>
-      <c r="I52" s="3">
+        <v>91800</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>152200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>173500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3">
         <v>85100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3230,8 +3472,14 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,56 +3540,62 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5849700</v>
+        <v>1401200</v>
       </c>
       <c r="E54" s="3">
-        <v>5426100</v>
+        <v>1545700</v>
       </c>
       <c r="F54" s="3">
-        <v>5522200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>5580400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>5523100</v>
-      </c>
-      <c r="I54" s="3">
+        <v>1549000</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" s="3">
         <v>5337900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5289900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4104200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4121800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3586200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3733500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3827200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3580000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3608,14 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3638,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,56 +3664,58 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>127900</v>
+        <v>62900</v>
       </c>
       <c r="E57" s="3">
-        <v>106300</v>
+        <v>61300</v>
       </c>
       <c r="F57" s="3">
-        <v>32000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>40400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>43800</v>
-      </c>
-      <c r="I57" s="3">
+        <v>93700</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="3">
         <v>26500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>26600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>10400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>5000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>7700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>17300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>18800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>40700</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3464,56 +3728,62 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>102500</v>
+        <v>16300</v>
       </c>
       <c r="E58" s="3">
-        <v>86200</v>
+        <v>16300</v>
       </c>
       <c r="F58" s="3">
-        <v>73800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>66000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>56500</v>
-      </c>
-      <c r="I58" s="3">
+        <v>16300</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>55200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>54000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4800</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3526,56 +3796,62 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>734000</v>
+        <v>461500</v>
       </c>
       <c r="E59" s="3">
-        <v>727700</v>
+        <v>477500</v>
       </c>
       <c r="F59" s="3">
-        <v>850600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>858500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>769500</v>
-      </c>
-      <c r="I59" s="3">
+        <v>378400</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3">
         <v>672200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>649300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>498500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>462200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>437900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>487300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>602100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>496300</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3588,56 +3864,62 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>964500</v>
+        <v>540600</v>
       </c>
       <c r="E60" s="3">
-        <v>920100</v>
+        <v>555100</v>
       </c>
       <c r="F60" s="3">
-        <v>956400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>964900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>869800</v>
-      </c>
-      <c r="I60" s="3">
+        <v>488400</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" s="3">
         <v>753800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>729900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>513300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>472300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>451000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>510000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>625700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>541800</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,56 +3932,62 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1885300</v>
+        <v>630200</v>
       </c>
       <c r="E61" s="3">
-        <v>1652600</v>
+        <v>643300</v>
       </c>
       <c r="F61" s="3">
-        <v>1669200</v>
+        <v>648400</v>
       </c>
       <c r="G61" s="3">
-        <v>1584100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>1606800</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1621200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1650600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>657000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>649400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>26800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>28100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>30000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>31200</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3712,56 +4000,62 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>790800</v>
+        <v>299800</v>
       </c>
       <c r="E62" s="3">
-        <v>748900</v>
+        <v>303800</v>
       </c>
       <c r="F62" s="3">
-        <v>736900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>772000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>776700</v>
-      </c>
-      <c r="I62" s="3">
+        <v>313300</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="3">
         <v>726500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>591100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>301200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>290300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>307400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>306700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>332600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>318100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3774,8 +4068,14 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +4136,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4204,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,56 +4272,62 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3843800</v>
+        <v>1470600</v>
       </c>
       <c r="E66" s="3">
-        <v>3519100</v>
+        <v>1502200</v>
       </c>
       <c r="F66" s="3">
-        <v>3558900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>3473600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3411300</v>
-      </c>
-      <c r="I66" s="3">
+        <v>1450100</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K66" s="3">
         <v>3255100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3121400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1498700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1437700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>814300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>877600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1028300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>974100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4022,8 +4340,14 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4370,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4434,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4502,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4570,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,50 +4638,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-267900</v>
+        <v>-62700</v>
       </c>
       <c r="E72" s="3">
-        <v>-335500</v>
+        <v>-33900</v>
       </c>
       <c r="F72" s="3">
-        <v>-290700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-190800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-173300</v>
-      </c>
-      <c r="I72" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
         <v>-175600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-96300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-152400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-72800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>52100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>142300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4347,17 +4697,23 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T72" s="3">
-        <v>0</v>
-      </c>
-      <c r="U72" s="3">
-        <v>0</v>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4774,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4842,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,56 +4910,62 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2005900</v>
+        <v>-69500</v>
       </c>
       <c r="E76" s="3">
-        <v>1907000</v>
+        <v>43500</v>
       </c>
       <c r="F76" s="3">
-        <v>1963200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>2106800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>2111800</v>
-      </c>
-      <c r="I76" s="3">
+        <v>98900</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K76" s="3">
         <v>2082900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2168500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2605500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2684100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2771900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2856000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2798900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2605900</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4604,8 +4978,14 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +5046,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
-        <v>44834</v>
-      </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>67600</v>
+        <v>-24500</v>
       </c>
       <c r="E81" s="3">
-        <v>-44800</v>
+        <v>21700</v>
       </c>
       <c r="F81" s="3">
-        <v>-103100</v>
+        <v>79400</v>
       </c>
       <c r="G81" s="3">
-        <v>-17500</v>
+        <v>-71400</v>
       </c>
       <c r="H81" s="3">
-        <v>2300</v>
+        <v>-3900</v>
       </c>
       <c r="I81" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K81" s="3">
         <v>-79200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-38300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-27000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-55800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-35800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>128700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-134700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>81300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-56000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-60900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>54900</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,70 +5217,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>29100</v>
+        <v>14100</v>
       </c>
       <c r="E83" s="3">
-        <v>29800</v>
+        <v>14800</v>
       </c>
       <c r="F83" s="3">
-        <v>36000</v>
+        <v>31600</v>
       </c>
       <c r="G83" s="3">
-        <v>28600</v>
+        <v>20400</v>
       </c>
       <c r="H83" s="3">
-        <v>30500</v>
+        <v>16000</v>
       </c>
       <c r="I83" s="3">
+        <v>33200</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>29400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>28300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>39600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>25700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>28400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>24600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>26000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>27400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>26800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>27700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>54800</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5349,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5417,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5485,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5553,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5621,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>136100</v>
+        <v>3400</v>
       </c>
       <c r="E89" s="3">
-        <v>-81200</v>
+        <v>63000</v>
       </c>
       <c r="F89" s="3">
-        <v>35100</v>
+        <v>69300</v>
       </c>
       <c r="G89" s="3">
-        <v>-26600</v>
+        <v>35000</v>
       </c>
       <c r="H89" s="3">
-        <v>125800</v>
+        <v>2200</v>
       </c>
       <c r="I89" s="3">
+        <v>58200</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>7000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>55400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-11600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-7200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-95200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-38900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>33200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>122900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-19200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>46800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>24700</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5719,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-288700</v>
+        <v>-3000</v>
       </c>
       <c r="E91" s="3">
-        <v>-270100</v>
+        <v>-3000</v>
       </c>
       <c r="F91" s="3">
-        <v>-240200</v>
+        <v>-9200</v>
       </c>
       <c r="G91" s="3">
-        <v>-203400</v>
+        <v>-5100</v>
       </c>
       <c r="H91" s="3">
-        <v>-175800</v>
+        <v>-3500</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-137300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-130500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-102300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-107200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-112100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-125900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-118500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-121700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-86400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-69700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-78900</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5851,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5919,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-290700</v>
+        <v>17000</v>
       </c>
       <c r="E94" s="3">
-        <v>-285200</v>
+        <v>-9100</v>
       </c>
       <c r="F94" s="3">
-        <v>-256200</v>
+        <v>22400</v>
       </c>
       <c r="G94" s="3">
-        <v>-215400</v>
+        <v>58500</v>
       </c>
       <c r="H94" s="3">
-        <v>-186200</v>
+        <v>-10300</v>
       </c>
       <c r="I94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>-146300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-165400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-47600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>194300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>88200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-348300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-63000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-66600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-71200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-13700</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +6017,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +6081,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +6149,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +6217,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,190 +6285,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>249200</v>
+        <v>-59000</v>
       </c>
       <c r="E100" s="3">
-        <v>-20000</v>
+        <v>-84600</v>
       </c>
       <c r="F100" s="3">
-        <v>47100</v>
+        <v>-600</v>
       </c>
       <c r="G100" s="3">
-        <v>-19900</v>
+        <v>-246300</v>
       </c>
       <c r="H100" s="3">
-        <v>-12800</v>
+        <v>-8300</v>
       </c>
       <c r="I100" s="3">
+        <v>-141700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>-44800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>15500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>3500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>621400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-7000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-145600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>309400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-35300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-41200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-9600</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>5800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>2200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>3600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>94800</v>
+        <v>-38600</v>
       </c>
       <c r="E102" s="3">
-        <v>-387100</v>
+        <v>-30800</v>
       </c>
       <c r="F102" s="3">
-        <v>-174700</v>
+        <v>91200</v>
       </c>
       <c r="G102" s="3">
-        <v>-261300</v>
+        <v>-152700</v>
       </c>
       <c r="H102" s="3">
-        <v>-73500</v>
+        <v>-16400</v>
       </c>
       <c r="I102" s="3">
+        <v>-86300</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>-184500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-86400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-134800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>553300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>86800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-97500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-5200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>58000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-123000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-67400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1700</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="92">
   <si>
     <t>MSGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,322 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E8" s="3">
         <v>147900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>201200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>502300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>178300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>194000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>281200</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
         <v>294500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>260600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>214300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>168800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>170500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>181900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>394100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>178000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>216500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>582400</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E9" s="3">
         <v>102500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>115100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>282300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>125100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>110000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>182200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3">
         <v>153000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>120500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>102100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>85600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>92500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>540700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>249400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>405400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>123300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>163400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>348500</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E10" s="3">
         <v>45400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>86100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>220000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>53200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>84000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>99000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3">
         <v>141500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>140100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>112200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>83200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>78000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-531700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-67500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-11300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>54700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>53100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>233900</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1074,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,65 +1145,68 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>35600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>7800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>19900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>204400</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>4000</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1196,76 +1216,82 @@
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E15" s="3">
         <v>14100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>14800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>31600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>20400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>16000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>33200</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
         <v>29400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>28300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>39600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>25700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>28400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>130000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>51700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>54700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>26800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>27700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>54800</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1313,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>174100</v>
+      </c>
+      <c r="E17" s="3">
         <v>169700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>176600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>219500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>178200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>297100</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3">
         <v>377800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>304600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>253100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>215600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>229200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-85400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>337500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>324500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>246100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>278600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>551300</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-21800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>24600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>102100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-41200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15900</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-83300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-44000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-38800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-46800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-58700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>94400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-155600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>69600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-68100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-62100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>31100</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,348 +1482,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E20" s="3">
         <v>12100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>10600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-19200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-15700</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>26000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>33100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>43800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-14800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>12800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>25300</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E21" s="3">
         <v>4300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>50000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>135700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-40100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>24900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-56900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-29400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>163300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-144800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>111500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-28500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-34200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>111300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E22" s="3">
         <v>13800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>13400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>24600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>26800</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
         <v>9200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6500</v>
-      </c>
-      <c r="N22" s="3">
-        <v>5300</v>
       </c>
       <c r="O22" s="3">
         <v>5300</v>
       </c>
       <c r="P22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6800</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-23600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>79500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-73800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-58400</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3">
         <v>-95600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-50300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-60400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-30900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>135900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-171000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>83900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-56400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-67100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>49600</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
         <v>-18900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-10100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>800</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1906,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-24500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>78800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-73700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-58400</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3">
         <v>-76700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-40300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-25800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-60100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-40300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>122200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-160900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>82600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-56600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-66300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>48800</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-24500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>79400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-71400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-58000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3">
         <v>-79200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-38300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-27000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-55800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-35800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>128700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-134700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>81300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-56000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-60900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>54900</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2119,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2190,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2261,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,144 +2332,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-12100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-10600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>19200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>15700</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-26000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-33100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-43800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>14800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-12800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-25300</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-24500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>79400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-71400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-58000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3">
         <v>-79200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-38300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-27000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-55800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-35800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>128700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-134700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>81300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-56000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-60900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>54900</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2545,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-24500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>79400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-71400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-58000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3">
         <v>-79200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-38300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-27000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-55800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-35800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>128700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-134700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>81300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-56000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-60900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>54900</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2721,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,23 +2748,24 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E41" s="3">
         <v>76100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>122700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>153500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2688,33 +2775,33 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3">
         <v>1331500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1517000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1277700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1451400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>925800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>906600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1003900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>997700</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2730,8 +2817,11 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2769,20 +2859,20 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>38900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>337200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>331000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>113000</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2798,23 +2888,26 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>155400</v>
+      </c>
+      <c r="E43" s="3">
         <v>144600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>219500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>196900</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2824,33 +2917,33 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
         <v>231400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>309500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>153800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>113600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>111400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>84100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>115700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>103300</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2866,23 +2959,26 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E44" s="3">
         <v>2600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2500</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2892,8 +2988,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2934,23 +3030,26 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>87700</v>
+      </c>
+      <c r="E45" s="3">
         <v>72000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>63000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>66500</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2960,33 +3059,33 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3">
         <v>126300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>132300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>109300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>97300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>103000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>98700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>198800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>84200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3002,23 +3101,26 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>283600</v>
+      </c>
+      <c r="E46" s="3">
         <v>295300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>408400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>419300</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,33 +3130,33 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3">
         <v>1689100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1872700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1540800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1662300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1179100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1426500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1649400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1298200</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3070,8 +3172,11 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3097,32 +3202,32 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>48200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>49300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>273600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>257400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>255900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>245700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>274800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>257500</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3138,23 +3243,26 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>849000</v>
+      </c>
+      <c r="E48" s="3">
         <v>864700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>886000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>905000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3164,33 +3272,33 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3">
         <v>2698200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2436900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2127100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2035500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1948500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1880800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1775500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1775900</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3206,8 +3314,11 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3220,8 +3331,8 @@
       <c r="F49" s="3">
         <v>132800</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>132800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -3232,33 +3343,33 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3">
         <v>750200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>764300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>265700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>282800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>285700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>288500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>302800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>393500</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3274,8 +3385,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3456,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,23 +3527,26 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E52" s="3">
         <v>108400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>118500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>91800</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3436,27 +3556,27 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>152200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>173500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3">
         <v>85100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3478,8 +3598,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,23 +3669,26 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1348500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1401200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1545700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1549000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3572,33 +3698,33 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3">
         <v>5337900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5289900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4104200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4121800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3586200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3733500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3827200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3580000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3614,8 +3740,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3769,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,23 +3796,24 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>88600</v>
+      </c>
+      <c r="E57" s="3">
         <v>62900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>61300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>93700</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3692,33 +3823,33 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3">
         <v>26500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>26600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>40700</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3734,13 +3865,16 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16300</v>
+        <v>20300</v>
       </c>
       <c r="E58" s="3">
         <v>16300</v>
@@ -3748,8 +3882,8 @@
       <c r="F58" s="3">
         <v>16300</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>16300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -3760,32 +3894,32 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>55200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>54000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>5400</v>
       </c>
       <c r="P58" s="3">
         <v>5400</v>
       </c>
       <c r="Q58" s="3">
-        <v>4800</v>
+        <v>5400</v>
       </c>
       <c r="R58" s="3">
         <v>4800</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
+      <c r="S58" s="3">
+        <v>4800</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
@@ -3802,23 +3936,26 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>495700</v>
+      </c>
+      <c r="E59" s="3">
         <v>461500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>477500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>378400</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3828,33 +3965,33 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3">
         <v>672200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>649300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>498500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>462200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>437900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>487300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>602100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>496300</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3870,23 +4007,26 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>604700</v>
+      </c>
+      <c r="E60" s="3">
         <v>540600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>555100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>488400</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3896,33 +4036,33 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3">
         <v>753800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>729900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>513300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>472300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>451000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>510000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>625700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>541800</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3938,23 +4078,26 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>699400</v>
+      </c>
+      <c r="E61" s="3">
         <v>630200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>643300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>648400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3965,32 +4108,32 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1621200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1650600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>657000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>649400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>26800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>30000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>31200</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4006,23 +4149,26 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>279700</v>
+      </c>
+      <c r="E62" s="3">
         <v>299800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>303800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>313300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4032,33 +4178,33 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3">
         <v>726500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>591100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>301200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>290300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>307400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>306700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>332600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>318100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4074,8 +4220,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4291,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4362,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,23 +4433,26 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1583700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1470600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1502200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1450100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4304,33 +4462,33 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3">
         <v>3255100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3121400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1498700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1437700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>814300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>877600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1028300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>974100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4346,8 +4504,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4533,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4602,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4673,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4744,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,19 +4815,22 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-62700</v>
+        <v>-79400</v>
       </c>
       <c r="E72" s="3">
-        <v>-33900</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-34100</v>
+        <v>-28700</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -4670,27 +4844,27 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3">
         <v>-175600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-96300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-152400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-72800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>52100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>142300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4703,8 +4877,8 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V72" s="3">
-        <v>0</v>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W72" s="3">
         <v>0</v>
@@ -4712,8 +4886,11 @@
       <c r="X72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4957,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5028,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,23 +5099,26 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-235200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-69500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>43500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>98900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4942,33 +5128,33 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3">
         <v>2082900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2168500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2605500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2684100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2771900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2856000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2798900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2605900</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4984,8 +5170,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5241,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-24500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>79400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-71400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-58000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3">
         <v>-79200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-38300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-27000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-55800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-35800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>128700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-134700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>81300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-56000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-60900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>54900</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,76 +5417,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E83" s="3">
         <v>14100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33200</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>29400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>28300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>39600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>25700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>28400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>24600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>26000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>27400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>26800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>27700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>54800</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5557,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5628,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5699,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5770,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5841,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>3400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>63000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>69300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>35000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>58200</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>7000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>55400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-95200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-38900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>33200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>122900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-19200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>46800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>24700</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,76 +5941,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3000</v>
+        <v>-3300</v>
       </c>
       <c r="E91" s="3">
         <v>-3000</v>
       </c>
       <c r="F91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-9200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3500</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-137300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-130500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-102300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-107200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-112100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-125900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-118500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-121700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-86400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-69700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-78900</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6081,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6152,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="E94" s="3">
         <v>17000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>22400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>58500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2800</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-146300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-165400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-47600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>194300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>88200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-348300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-63000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-66600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-71200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-13700</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6252,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6321,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6392,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6463,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,76 +6534,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-59000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-84600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-246300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-141700</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>-44800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>15500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>621400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-145600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>309400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-35300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-41200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-9600</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6386,113 +6635,119 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-400</v>
-      </c>
-      <c r="L101" s="3">
-        <v>100</v>
       </c>
       <c r="M101" s="3">
         <v>100</v>
       </c>
       <c r="N101" s="3">
+        <v>100</v>
+      </c>
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-38600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-30800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>91200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-152700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-16400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-86300</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>-184500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-86400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-134800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>553300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>86800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-97500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>58000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-123000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-67400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1700</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
